--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="469">
   <si>
     <t>基本属性</t>
   </si>
@@ -325,7 +325,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>技术部</t>
+    <t>技术部门</t>
   </si>
   <si>
     <t>基础办公室</t>
@@ -349,7 +349,7 @@
     <t xml:space="preserve">大成功：程序*2，Exp*2                         成功：程序*1                        失败：程序*0                   失误：失误事件，心力-20 </t>
   </si>
   <si>
-    <t>市场部</t>
+    <t>市场部门</t>
   </si>
   <si>
     <t>市场</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">大成功：文案*2，Exp*2                         成功：文案*1                        失败：文案*0                   失误：失误事件，心力-20 </t>
   </si>
   <si>
-    <t>产品部</t>
+    <t>产品部门</t>
   </si>
   <si>
     <t>产品</t>
@@ -457,7 +457,7 @@
     <t>在自己管理下的员工中选择一人，提升热情，持续1m</t>
   </si>
   <si>
-    <t>研发部</t>
+    <t>研发部门</t>
   </si>
   <si>
     <t>机械信仰建筑</t>
@@ -1066,6 +1066,9 @@
     <t>业务前置</t>
   </si>
   <si>
+    <t>技术部</t>
+  </si>
+  <si>
     <t>业务办公室</t>
   </si>
   <si>
@@ -1081,12 +1084,18 @@
     <t>需要职业为工程师或运营专员</t>
   </si>
   <si>
+    <t>市场部</t>
+  </si>
+  <si>
     <t>完成市场类业务</t>
   </si>
   <si>
     <t>需要职业为市场营销或运营专员</t>
   </si>
   <si>
+    <t>产品部</t>
+  </si>
+  <si>
     <t xml:space="preserve">完成产品类业务 </t>
   </si>
   <si>
@@ -1100,6 +1109,9 @@
   </si>
   <si>
     <t>需要职业为运营专员</t>
+  </si>
+  <si>
+    <t>研发部</t>
   </si>
   <si>
     <t>技术/产品</t>
@@ -1846,10 +1858,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1945,13 +1957,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1966,24 +1971,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2003,9 +1994,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2017,6 +2008,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2025,9 +2023,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2044,52 +2102,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2175,18 +2187,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2199,7 +2199,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2217,145 +2367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4254,15 +4266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4282,7 +4285,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4312,45 +4363,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4359,10 +4371,10 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="149" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4371,133 +4383,133 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="155" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="152" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="151" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="154" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="149" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="153" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="151" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="154" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="153" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="152" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="155" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6162,11 +6174,11 @@
   <dimension ref="A1:AI201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13560,14 +13572,14 @@
     <mergeCell ref="N10:O10"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5:B38" errorStyle="warning">
+      <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室,装饰设施"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B4" errorStyle="warning">
       <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="C3:C38" errorStyle="warning">
       <formula1>"√,×"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5:B38" errorStyle="warning">
-      <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室,装饰设施"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E3:E38 E43:E201" errorStyle="warning">
       <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>
@@ -13709,10 +13721,10 @@
         <v>258</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>23</v>
@@ -13733,7 +13745,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K3" s="220" t="s">
         <v>25</v>
@@ -13745,13 +13757,13 @@
         <v>25</v>
       </c>
       <c r="N3" s="95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O3" s="223" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P3" s="224" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
@@ -13760,10 +13772,10 @@
     <row r="4" ht="42" customHeight="1" spans="1:19">
       <c r="A4" s="173"/>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>23</v>
@@ -13784,7 +13796,7 @@
         <v>25</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K4" s="225" t="s">
         <v>25</v>
@@ -13796,13 +13808,13 @@
         <v>25</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O4" s="228" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P4" s="229" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
@@ -13811,10 +13823,10 @@
     <row r="5" ht="42" customHeight="1" spans="1:19">
       <c r="A5" s="173"/>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>23</v>
@@ -13835,7 +13847,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K5" s="225" t="s">
         <v>25</v>
@@ -13847,13 +13859,13 @@
         <v>25</v>
       </c>
       <c r="N5" s="95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O5" s="228" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P5" s="229" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="44"/>
       <c r="R5" s="44"/>
@@ -13862,10 +13874,10 @@
     <row r="6" ht="42" customHeight="1" spans="1:27">
       <c r="A6" s="175"/>
       <c r="B6" s="176" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C6" s="177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D6" s="178" t="s">
         <v>67</v>
@@ -13886,7 +13898,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="230" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K6" s="231" t="s">
         <v>25</v>
@@ -13898,13 +13910,13 @@
         <v>25</v>
       </c>
       <c r="N6" s="234" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O6" s="235" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P6" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="319"/>
       <c r="R6" s="319"/>
@@ -13921,10 +13933,10 @@
     <row r="7" ht="42" customHeight="1" spans="1:19">
       <c r="A7" s="173"/>
       <c r="B7" s="15" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>67</v>
@@ -13936,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H7" s="174" t="s">
         <v>24</v>
@@ -13945,7 +13957,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K7" s="225" t="s">
         <v>25</v>
@@ -13957,13 +13969,13 @@
         <v>25</v>
       </c>
       <c r="N7" s="95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O7" s="237" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P7" s="229" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="44"/>
       <c r="R7" s="44"/>
@@ -13972,10 +13984,10 @@
     <row r="8" ht="39" customHeight="1" spans="1:27">
       <c r="A8" s="175"/>
       <c r="B8" s="181" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8" s="177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D8" s="178" t="s">
         <v>23</v>
@@ -13987,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="178" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H8" s="180" t="s">
         <v>114</v>
@@ -13996,7 +14008,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="230" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K8" s="231" t="s">
         <v>25</v>
@@ -14008,13 +14020,13 @@
         <v>25</v>
       </c>
       <c r="N8" s="234" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O8" s="235" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P8" s="236" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="319"/>
       <c r="R8" s="319"/>
@@ -14034,7 +14046,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>23</v>
@@ -14055,10 +14067,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K9" s="238" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L9" s="239" t="s">
         <v>25</v>
@@ -14067,13 +14079,13 @@
         <v>25</v>
       </c>
       <c r="N9" s="105" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O9" s="241" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P9" s="242" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
@@ -14085,7 +14097,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>23</v>
@@ -14106,11 +14118,11 @@
         <v>4</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="238" t="s">
         <v>285</v>
       </c>
-      <c r="K10" s="238" t="s">
-        <v>281</v>
-      </c>
       <c r="L10" s="239" t="s">
         <v>25</v>
       </c>
@@ -14118,13 +14130,13 @@
         <v>25</v>
       </c>
       <c r="N10" s="105" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O10" s="241" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P10" s="242" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -14136,7 +14148,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>23</v>
@@ -14167,13 +14179,13 @@
         <v>25</v>
       </c>
       <c r="N11" s="105" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O11" s="241" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P11" s="242" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
@@ -14181,13 +14193,13 @@
     </row>
     <row r="12" ht="64" customHeight="1" spans="1:19">
       <c r="A12" s="183" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B12" s="184" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C12" s="185" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D12" s="186" t="s">
         <v>23</v>
@@ -14208,25 +14220,25 @@
         <v>2</v>
       </c>
       <c r="J12" s="246" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K12" s="247">
         <v>100</v>
       </c>
       <c r="L12" s="248" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M12" s="249" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N12" s="250" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O12" s="251" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P12" s="252" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -14235,10 +14247,10 @@
     <row r="13" ht="80" customHeight="1" spans="1:27">
       <c r="A13" s="189"/>
       <c r="B13" s="176" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C13" s="177" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D13" s="178" t="s">
         <v>67</v>
@@ -14259,25 +14271,25 @@
         <v>2</v>
       </c>
       <c r="J13" s="254" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K13" s="255">
         <v>100</v>
       </c>
       <c r="L13" s="232" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M13" s="233" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N13" s="256" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O13" s="257" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P13" s="236" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="319"/>
       <c r="R13" s="319"/>
@@ -14297,7 +14309,7 @@
         <v>220</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>67</v>
@@ -14318,25 +14330,25 @@
         <v>2</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K14" s="258">
         <v>100</v>
       </c>
       <c r="L14" s="226" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M14" s="227" t="s">
         <v>221</v>
       </c>
       <c r="N14" s="117" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O14" s="259" t="s">
+        <v>308</v>
+      </c>
+      <c r="P14" s="229" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="229" t="s">
-        <v>300</v>
       </c>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -14348,7 +14360,7 @@
         <v>95</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>67</v>
@@ -14369,25 +14381,25 @@
         <v>2</v>
       </c>
       <c r="J15" s="260" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K15" s="261">
         <v>100</v>
       </c>
       <c r="L15" s="262" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M15" s="263" t="s">
         <v>97</v>
       </c>
       <c r="N15" s="264" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O15" s="265" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P15" s="266" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
@@ -14395,13 +14407,13 @@
     </row>
     <row r="16" ht="32" customHeight="1" spans="1:19">
       <c r="A16" s="193" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>67</v>
@@ -14422,23 +14434,23 @@
         <v>2</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K16" s="244">
         <v>100</v>
       </c>
       <c r="L16" s="239" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M16" s="240" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N16" s="267"/>
       <c r="O16" s="268" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P16" s="242" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
@@ -14450,7 +14462,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>67</v>
@@ -14471,25 +14483,25 @@
         <v>2</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K17" s="258">
         <v>100</v>
       </c>
       <c r="L17" s="226" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M17" s="227" t="s">
         <v>124</v>
       </c>
       <c r="N17" s="117" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O17" s="269" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P17" s="229" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
@@ -14501,7 +14513,7 @@
         <v>132</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>67</v>
@@ -14522,25 +14534,25 @@
         <v>96</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K18" s="258">
         <v>100</v>
       </c>
       <c r="L18" s="226" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M18" s="227" t="s">
         <v>133</v>
       </c>
       <c r="N18" s="103" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O18" s="270" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P18" s="229" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -14548,13 +14560,13 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="195" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B19" s="184" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C19" s="185" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D19" s="187"/>
       <c r="E19" s="187"/>
@@ -14567,7 +14579,7 @@
       <c r="J19" s="246"/>
       <c r="K19" s="272"/>
       <c r="L19" s="248" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M19" s="249" t="s">
         <v>45</v>
@@ -14584,10 +14596,10 @@
     <row r="20" ht="56" customHeight="1" spans="1:27">
       <c r="A20" s="197"/>
       <c r="B20" s="176" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D20" s="178" t="s">
         <v>67</v>
@@ -14608,19 +14620,19 @@
         <v>2</v>
       </c>
       <c r="J20" s="254" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K20" s="231" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="232" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M20" s="233" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N20" s="276" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O20" s="277"/>
       <c r="P20" s="278"/>
@@ -14639,10 +14651,10 @@
     <row r="21" spans="1:19">
       <c r="A21" s="198"/>
       <c r="B21" s="15" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -14655,13 +14667,13 @@
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K21" s="225" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="226" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M21" s="227" t="s">
         <v>45</v>
@@ -14681,7 +14693,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -14696,7 +14708,7 @@
         <v>45</v>
       </c>
       <c r="L22" s="239" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M22" s="240" t="s">
         <v>45</v>
@@ -14712,13 +14724,13 @@
     </row>
     <row r="23" ht="70" customHeight="1" spans="1:27">
       <c r="A23" s="200" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B23" s="201" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C23" s="202" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D23" s="203" t="s">
         <v>67</v>
@@ -14736,26 +14748,26 @@
         <v>38</v>
       </c>
       <c r="I23" s="205" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J23" s="283" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K23" s="284">
         <v>100</v>
       </c>
       <c r="L23" s="285" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M23" s="286" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N23" s="287"/>
       <c r="O23" s="288" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P23" s="289" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="319"/>
       <c r="R23" s="319"/>
@@ -14772,10 +14784,10 @@
     <row r="24" ht="32" customHeight="1" spans="1:27">
       <c r="A24" s="197"/>
       <c r="B24" s="176" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D24" s="178" t="s">
         <v>67</v>
@@ -14793,26 +14805,26 @@
         <v>143</v>
       </c>
       <c r="I24" s="180" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J24" s="254" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K24" s="290">
         <v>100</v>
       </c>
       <c r="L24" s="232" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M24" s="233" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N24" s="291"/>
       <c r="O24" s="277" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P24" s="236" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="319"/>
       <c r="R24" s="319"/>
@@ -14829,10 +14841,10 @@
     <row r="25" ht="32" customHeight="1" spans="1:27">
       <c r="A25" s="197"/>
       <c r="B25" s="176" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C25" s="177" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D25" s="178" t="s">
         <v>67</v>
@@ -14850,26 +14862,26 @@
         <v>38</v>
       </c>
       <c r="I25" s="180" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J25" s="254" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K25" s="290">
         <v>100</v>
       </c>
       <c r="L25" s="232" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M25" s="233" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N25" s="291"/>
       <c r="O25" s="277" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P25" s="236" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="319"/>
       <c r="R25" s="319"/>
@@ -14889,7 +14901,7 @@
         <v>105</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>67</v>
@@ -14907,26 +14919,26 @@
         <v>143</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K26" s="292">
         <v>100</v>
       </c>
       <c r="L26" s="226" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M26" s="227" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N26" s="279"/>
       <c r="O26" s="280" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P26" s="229" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
@@ -14935,10 +14947,10 @@
     <row r="27" ht="32" customHeight="1" spans="1:27">
       <c r="A27" s="197"/>
       <c r="B27" s="176" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C27" s="177" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D27" s="178" t="s">
         <v>67</v>
@@ -14956,26 +14968,26 @@
         <v>38</v>
       </c>
       <c r="I27" s="180" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J27" s="254" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K27" s="290">
         <v>100</v>
       </c>
       <c r="L27" s="232" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M27" s="233" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N27" s="291"/>
       <c r="O27" s="277" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P27" s="236" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q27" s="319"/>
       <c r="R27" s="319"/>
@@ -14992,10 +15004,10 @@
     <row r="28" ht="32" customHeight="1" spans="1:27">
       <c r="A28" s="207"/>
       <c r="B28" s="208" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D28" s="210" t="s">
         <v>67</v>
@@ -15013,26 +15025,26 @@
         <v>143</v>
       </c>
       <c r="I28" s="212" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J28" s="293" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K28" s="294">
         <v>100</v>
       </c>
       <c r="L28" s="295" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M28" s="296" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N28" s="297"/>
       <c r="O28" s="298" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P28" s="299" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="319"/>
       <c r="R28" s="319"/>
@@ -15048,13 +15060,13 @@
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:27">
       <c r="A29" s="200" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B29" s="201" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C29" s="202" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D29" s="203" t="s">
         <v>67</v>
@@ -15075,25 +15087,25 @@
         <v>2</v>
       </c>
       <c r="J29" s="283" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K29" s="301">
         <v>100</v>
       </c>
       <c r="L29" s="285" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M29" s="286" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N29" s="302" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O29" s="288" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P29" s="289" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="319"/>
       <c r="R29" s="319"/>
@@ -15110,10 +15122,10 @@
     <row r="30" ht="48" customHeight="1" spans="1:27">
       <c r="A30" s="207"/>
       <c r="B30" s="208" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C30" s="209" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D30" s="210" t="s">
         <v>67</v>
@@ -15134,23 +15146,23 @@
         <v>25</v>
       </c>
       <c r="J30" s="293" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K30" s="303">
         <v>100</v>
       </c>
       <c r="L30" s="295" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M30" s="296" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N30" s="297"/>
       <c r="O30" s="298" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P30" s="299" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q30" s="319"/>
       <c r="R30" s="319"/>
@@ -15166,13 +15178,13 @@
     </row>
     <row r="31" ht="56" customHeight="1" spans="1:19">
       <c r="A31" s="195" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B31" s="184" t="s">
         <v>198</v>
       </c>
       <c r="C31" s="185" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D31" s="186" t="s">
         <v>67</v>
@@ -15193,22 +15205,22 @@
         <v>2</v>
       </c>
       <c r="J31" s="246" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K31" s="247">
         <v>100</v>
       </c>
       <c r="L31" s="248" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M31" s="249" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N31" s="304" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O31" s="274" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P31" s="275"/>
       <c r="Q31" s="44"/>
@@ -15217,13 +15229,13 @@
     </row>
     <row r="32" ht="70" customHeight="1" spans="1:19">
       <c r="A32" s="195" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B32" s="184" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="185" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D32" s="186" t="s">
         <v>67</v>
@@ -15244,7 +15256,7 @@
         <v>96</v>
       </c>
       <c r="J32" s="246" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K32" s="305" t="s">
         <v>25</v>
@@ -15256,13 +15268,13 @@
         <v>25</v>
       </c>
       <c r="N32" s="308" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O32" s="274" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P32" s="309" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
@@ -15271,10 +15283,10 @@
     <row r="33" ht="56" customHeight="1" spans="1:19">
       <c r="A33" s="198"/>
       <c r="B33" s="15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>67</v>
@@ -15293,7 +15305,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K33" s="220" t="s">
         <v>25</v>
@@ -15305,10 +15317,10 @@
         <v>25</v>
       </c>
       <c r="N33" s="117" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="O33" s="280" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P33" s="310"/>
       <c r="Q33" s="44"/>
@@ -15321,7 +15333,7 @@
         <v>239</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>67</v>
@@ -15342,7 +15354,7 @@
         <v>96</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K34" s="225" t="s">
         <v>25</v>
@@ -15354,10 +15366,10 @@
         <v>25</v>
       </c>
       <c r="N34" s="117" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O34" s="280" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P34" s="224"/>
       <c r="Q34" s="44"/>
@@ -15370,7 +15382,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>67</v>
@@ -15391,7 +15403,7 @@
         <v>96</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K35" s="225" t="s">
         <v>25</v>
@@ -15403,10 +15415,10 @@
         <v>25</v>
       </c>
       <c r="N35" s="117" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="O35" s="280" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P35" s="229"/>
       <c r="Q35" s="44"/>
@@ -15419,7 +15431,7 @@
         <v>243</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>23</v>
@@ -15440,7 +15452,7 @@
         <v>96</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K36" s="225" t="s">
         <v>25</v>
@@ -15452,10 +15464,10 @@
         <v>25</v>
       </c>
       <c r="N36" s="117" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O36" s="280" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P36" s="229"/>
       <c r="Q36" s="44"/>
@@ -18685,11 +18697,11 @@
     <mergeCell ref="P1:P2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="C3:C36" errorStyle="warning">
+      <formula1>"支持类建筑,装饰陈设,文化建筑,管理办公室,业务办公室"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="H1 H3:H36 H37:H198" errorStyle="warning">
       <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="C3:C36" errorStyle="warning">
-      <formula1>"支持类建筑,装饰陈设,文化建筑,管理办公室,业务办公室"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="D3:D36" errorStyle="warning">
       <formula1>"√,×"</formula1>
@@ -19419,7 +19431,7 @@
       <c r="G36" s="141"/>
       <c r="H36" s="142"/>
       <c r="I36" s="158" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="J36" s="158"/>
       <c r="K36" s="140"/>
@@ -19804,7 +19816,7 @@
     </row>
     <row r="3" ht="144" customHeight="1" spans="1:25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>22</v>
@@ -19879,7 +19891,7 @@
     </row>
     <row r="4" ht="144" customHeight="1" spans="1:25">
       <c r="A4" s="15" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>22</v>
@@ -19954,7 +19966,7 @@
     </row>
     <row r="5" ht="144" customHeight="1" spans="1:25">
       <c r="A5" s="15" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>22</v>
@@ -20254,7 +20266,7 @@
     </row>
     <row r="9" ht="128" customHeight="1" spans="1:25">
       <c r="A9" s="33" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>22</v>
@@ -20357,7 +20369,7 @@
         <v>0.5</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L10" s="66">
         <v>20</v>
@@ -20366,13 +20378,13 @@
         <v>125</v>
       </c>
       <c r="N10" s="82" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O10" s="83" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="66">
         <v>20</v>
@@ -20381,10 +20393,10 @@
         <v>194</v>
       </c>
       <c r="S10" s="117" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="T10" s="83" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="U10" s="104" t="s">
         <v>25</v>
@@ -20432,7 +20444,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L11" s="66">
         <v>20</v>
@@ -20441,13 +20453,13 @@
         <v>119</v>
       </c>
       <c r="N11" s="84" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O11" s="85" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P11" s="67" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="66">
         <v>20</v>
@@ -20456,10 +20468,10 @@
         <v>181</v>
       </c>
       <c r="S11" s="84" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="T11" s="83" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="U11" s="104" t="s">
         <v>25</v>
@@ -20507,7 +20519,7 @@
         <v>0.5</v>
       </c>
       <c r="K12" s="65" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" s="66">
         <v>20</v>
@@ -20516,13 +20528,13 @@
         <v>56</v>
       </c>
       <c r="N12" s="57" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="67" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="66">
         <v>20</v>
@@ -20531,10 +20543,10 @@
         <v>194</v>
       </c>
       <c r="S12" s="57" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="T12" s="106" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="U12" s="77" t="s">
         <v>25</v>
@@ -20582,7 +20594,7 @@
         <v>0.5</v>
       </c>
       <c r="K13" s="60" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L13" s="66">
         <v>20</v>
@@ -20591,13 +20603,13 @@
         <v>92</v>
       </c>
       <c r="N13" s="82" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O13" s="83" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P13" s="62" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="66">
         <v>20</v>
@@ -20606,13 +20618,13 @@
         <v>101</v>
       </c>
       <c r="S13" s="117" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="T13" s="83" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="U13" s="104" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="V13" s="118">
         <v>20</v>
@@ -20621,10 +20633,10 @@
         <v>137</v>
       </c>
       <c r="X13" s="95" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Y13" s="134" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" ht="112" customHeight="1" spans="1:25">
@@ -20657,7 +20669,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="60" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L14" s="66">
         <v>20</v>
@@ -20666,13 +20678,13 @@
         <v>61</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="O14" s="86" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P14" s="62" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="66">
         <v>20</v>
@@ -20681,10 +20693,10 @@
         <v>56</v>
       </c>
       <c r="S14" s="103" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="T14" s="86" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="U14" s="104" t="s">
         <v>25</v>
@@ -20739,10 +20751,10 @@
         <v>181</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O15" s="58" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P15" s="67"/>
       <c r="Q15" s="66">
@@ -20752,10 +20764,10 @@
         <v>84</v>
       </c>
       <c r="S15" s="105" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="T15" s="120" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="U15" s="77" t="s">
         <v>25</v>
@@ -20803,7 +20815,7 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="65" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L16" s="66">
         <v>20</v>
@@ -20812,13 +20824,13 @@
         <v>34</v>
       </c>
       <c r="N16" s="57" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P16" s="67" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="66">
         <v>20</v>
@@ -20827,10 +20839,10 @@
         <v>43</v>
       </c>
       <c r="S16" s="105" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="T16" s="89" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="U16" s="77" t="s">
         <v>25</v>
@@ -20953,7 +20965,7 @@
         <v>0.5</v>
       </c>
       <c r="K18" s="65" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L18" s="66">
         <v>20</v>
@@ -20962,13 +20974,13 @@
         <v>181</v>
       </c>
       <c r="N18" s="88" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P18" s="67" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="66">
         <v>20</v>
@@ -20977,10 +20989,10 @@
         <v>101</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="T18" s="83" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="U18" s="104" t="s">
         <v>25</v>
@@ -21028,7 +21040,7 @@
         <v>0.5</v>
       </c>
       <c r="K19" s="65" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L19" s="66">
         <v>20</v>
@@ -21037,13 +21049,13 @@
         <v>56</v>
       </c>
       <c r="N19" s="88" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O19" s="89" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P19" s="67" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="66">
         <v>20</v>
@@ -21052,10 +21064,10 @@
         <v>119</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="T19" s="89" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="U19" s="104" t="s">
         <v>25</v>
@@ -21265,7 +21277,7 @@
         <v>0.5</v>
       </c>
       <c r="K26" s="65" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L26" s="66">
         <v>20</v>
@@ -21274,13 +21286,13 @@
         <v>34</v>
       </c>
       <c r="N26" s="57" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="O26" s="58" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P26" s="67" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="66">
         <v>20</v>
@@ -21289,10 +21301,10 @@
         <v>26</v>
       </c>
       <c r="S26" s="105" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="T26" s="120" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="U26" s="77" t="s">
         <v>25</v>
@@ -21312,7 +21324,7 @@
     </row>
     <row r="27" ht="154" customHeight="1" spans="1:25">
       <c r="A27" s="20" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>66</v>
@@ -21340,7 +21352,7 @@
         <v>0.5</v>
       </c>
       <c r="K27" s="65" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L27" s="66">
         <v>20</v>
@@ -21349,13 +21361,13 @@
         <v>34</v>
       </c>
       <c r="N27" s="57" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O27" s="58" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q27" s="66">
         <v>20</v>
@@ -21364,13 +21376,13 @@
         <v>26</v>
       </c>
       <c r="S27" s="125" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="T27" s="89" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="U27" s="126" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="V27" s="127">
         <v>20</v>
@@ -21379,7 +21391,7 @@
         <v>92</v>
       </c>
       <c r="X27" s="129" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Y27" s="138" t="s">
         <v>25</v>
@@ -21387,7 +21399,7 @@
     </row>
     <row r="28" ht="126" customHeight="1" spans="1:25">
       <c r="A28" s="20" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>22</v>
@@ -21415,7 +21427,7 @@
         <v>0.5</v>
       </c>
       <c r="K28" s="65" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L28" s="66">
         <v>20</v>
@@ -21424,13 +21436,13 @@
         <v>137</v>
       </c>
       <c r="N28" s="57" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="O28" s="58" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P28" s="67" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="66">
         <v>20</v>
@@ -21439,13 +21451,13 @@
         <v>101</v>
       </c>
       <c r="S28" s="57" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="T28" s="89" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="U28" s="77" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="V28" s="130">
         <v>20</v>
@@ -21454,10 +21466,10 @@
         <v>194</v>
       </c>
       <c r="X28" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Y28" s="89" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" ht="96" customHeight="1" spans="1:25">
@@ -21499,10 +21511,10 @@
         <v>125</v>
       </c>
       <c r="N29" s="82" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O29" s="83" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P29" s="62" t="s">
         <v>128</v>
@@ -21514,10 +21526,10 @@
         <v>101</v>
       </c>
       <c r="S29" s="117" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="T29" s="83" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="U29" s="104" t="s">
         <v>25</v>
@@ -21574,10 +21586,10 @@
         <v>125</v>
       </c>
       <c r="N30" s="63" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O30" s="86" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P30" s="62" t="s">
         <v>136</v>
@@ -21589,10 +21601,10 @@
         <v>137</v>
       </c>
       <c r="S30" s="103" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="T30" s="83" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="U30" s="104" t="s">
         <v>25</v>
@@ -21715,7 +21727,7 @@
         <v>0.5</v>
       </c>
       <c r="K32" s="65" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L32" s="66">
         <v>20</v>
@@ -21727,10 +21739,10 @@
         <v>98</v>
       </c>
       <c r="O32" s="85" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P32" s="67" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="66">
         <v>20</v>
@@ -21739,10 +21751,10 @@
         <v>101</v>
       </c>
       <c r="S32" s="131" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="T32" s="83" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="U32" s="104" t="s">
         <v>25</v>
@@ -21817,7 +21829,7 @@
         <v>0.5</v>
       </c>
       <c r="K34" s="65" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L34" s="66">
         <v>20</v>
@@ -21826,13 +21838,13 @@
         <v>56</v>
       </c>
       <c r="N34" s="88" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P34" s="67" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="66">
         <v>20</v>
@@ -21841,10 +21853,10 @@
         <v>101</v>
       </c>
       <c r="S34" s="88" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="T34" s="83" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="U34" s="104" t="s">
         <v>25</v>
@@ -21864,7 +21876,7 @@
     </row>
     <row r="35" ht="98" customHeight="1" spans="1:25">
       <c r="A35" s="20" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>66</v>
@@ -21892,7 +21904,7 @@
         <v>0.5</v>
       </c>
       <c r="K35" s="65" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L35" s="66">
         <v>20</v>
@@ -21901,13 +21913,13 @@
         <v>26</v>
       </c>
       <c r="N35" s="88" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="O35" s="85" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P35" s="67" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q35" s="66">
         <v>20</v>
@@ -21916,10 +21928,10 @@
         <v>92</v>
       </c>
       <c r="S35" s="88" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="T35" s="85" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="U35" s="104" t="s">
         <v>25</v>
@@ -21944,14 +21956,14 @@
     <mergeCell ref="K1:Y1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5:B19 B26:B32 B34:B35" errorStyle="warning">
+      <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室,装饰设施"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B4" errorStyle="warning">
       <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="C3:C19 C26:C32 C34:C35" errorStyle="warning">
       <formula1>"√,×"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5:B19 B26:B32 B34:B35" errorStyle="warning">
-      <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室,装饰设施"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E3:E19 E26:E32 E34:E35" errorStyle="warning">
       <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -580,8 +580,8 @@
     <t>选择一名员工，回复心力（成功后激活可释放）</t>
   </si>
   <si>
-    <t>大成功：心力+25%，Exp*2
-成功：心力+10%</t>
+    <t>大成功：心力+75%，Exp*2
+成功：心力+40%</t>
   </si>
   <si>
     <t>畅谈人生</t>
@@ -593,8 +593,8 @@
     <t>选择一名员工，回复心力并有几率增加好感度</t>
   </si>
   <si>
-    <t>大成功：心力+15%，Exp*2 对方好感+20
-成功：心力+5%，对方好感+10</t>
+    <t>大成功：心力+60%，Exp*2 对方好感+20
+成功：心力+25%，对方好感+10</t>
   </si>
   <si>
     <t>管理类，团结流，回复心力，增加好感</t>
@@ -696,8 +696,8 @@
     <t>选择一名员工回复体力，有几率增加“筋肉人”状态，强壮+2，可叠加，但强壮最高不会超过25</t>
   </si>
   <si>
-    <t>大成功：+体力15%，Exp*2，40%几率+筋肉人
-成功：+体力5%</t>
+    <t>大成：+体力75%，Exp*2，40%几率+强化
+成功：+体力40%</t>
   </si>
   <si>
     <t>耐力集训</t>
@@ -709,8 +709,8 @@
     <t>选择一名员工回复体力，有几率增加“铁人”状态，坚韧+2，可叠加，但坚韧最高不会超过25</t>
   </si>
   <si>
-    <t>大成功：+体力15%，Exp*2，40%几率+铁人
-成功：+体力5%</t>
+    <t>大成功：+体力75%，Exp*2，40%几率+铁人
+成功：+体力40%</t>
   </si>
   <si>
     <t>管理类，头脑风暴流，恢复体力，提供体力加成</t>
@@ -1920,8 +1920,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2018,9 +2018,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2034,44 +2091,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2080,22 +2099,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2109,29 +2115,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2162,8 +2145,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2249,13 +2249,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2267,49 +2315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2321,103 +2333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2430,6 +2346,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4328,17 +4328,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4367,46 +4385,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4425,153 +4414,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="153" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="153" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="150" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="152" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="152" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="152" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="155" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="154" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="153" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="149" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="151" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="154" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="155" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13637,14 +13637,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B4" errorStyle="warning">
       <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E3:E38 E43:E201" errorStyle="warning">
-      <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5:B38" errorStyle="warning">
       <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室,装饰设施"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="C3:C38" errorStyle="warning">
       <formula1>"√,×"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E3:E38 E43:E201" errorStyle="warning">
+      <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22022,14 +22022,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B4" errorStyle="warning">
       <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E3:E19 E26:E32 E34:E35" errorStyle="warning">
-      <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5:B19 B26:B32 B34:B35" errorStyle="warning">
       <formula1>"机械信仰建筑,人文信仰建筑,独裁文化建筑,开源文化建筑,基础办公室,装饰设施"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="C3:C19 C26:C32 C34:C35" errorStyle="warning">
       <formula1>"√,×"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E3:E19 E26:E32 E34:E35" errorStyle="warning">
+      <formula1>"1×1,2×4,4×4,1×2,2×2,3×2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -6967,8 +6967,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8879,6 +8879,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="600">
   <si>
     <t>基本属性</t>
   </si>
@@ -2259,12 +2259,28 @@
     <t>2×4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>3×2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谋略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3×2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2450,6 +2466,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4750,7 +4774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="646">
+  <cellXfs count="649">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6562,6 +6586,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6967,86 +7000,86 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="606" t="s">
+      <c r="A1" s="609" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="604" t="s">
+      <c r="B1" s="607" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="606" t="s">
+      <c r="C1" s="609" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="608" t="s">
+      <c r="D1" s="611" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="608" t="s">
+      <c r="E1" s="611" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="608" t="s">
+      <c r="F1" s="611" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="608" t="s">
+      <c r="G1" s="611" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="604" t="s">
+      <c r="H1" s="607" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="606" t="s">
+      <c r="I1" s="609" t="s">
         <v>495</v>
       </c>
-      <c r="J1" s="608" t="s">
+      <c r="J1" s="611" t="s">
         <v>496</v>
       </c>
-      <c r="K1" s="608" t="s">
+      <c r="K1" s="611" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="604" t="s">
+      <c r="L1" s="607" t="s">
         <v>497</v>
       </c>
-      <c r="M1" s="613" t="s">
+      <c r="M1" s="616" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="614"/>
-      <c r="O1" s="615"/>
-      <c r="P1" s="606" t="s">
+      <c r="N1" s="617"/>
+      <c r="O1" s="618"/>
+      <c r="P1" s="609" t="s">
         <v>499</v>
       </c>
-      <c r="Q1" s="608" t="s">
+      <c r="Q1" s="611" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="608" t="s">
+      <c r="R1" s="611" t="s">
         <v>501</v>
       </c>
-      <c r="S1" s="608" t="s">
+      <c r="S1" s="611" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="604" t="s">
+      <c r="T1" s="607" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="611" t="s">
+      <c r="U1" s="614" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="27.75" thickBot="1">
-      <c r="A2" s="607"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="607"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="610"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="607"/>
-      <c r="J2" s="609"/>
-      <c r="K2" s="609"/>
-      <c r="L2" s="605"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="608"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="612"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="610"/>
+      <c r="J2" s="612"/>
+      <c r="K2" s="612"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="476" t="s">
         <v>502</v>
       </c>
@@ -7056,12 +7089,12 @@
       <c r="O2" s="478" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="607"/>
-      <c r="Q2" s="609"/>
-      <c r="R2" s="609"/>
-      <c r="S2" s="609"/>
-      <c r="T2" s="605"/>
-      <c r="U2" s="612"/>
+      <c r="P2" s="610"/>
+      <c r="Q2" s="612"/>
+      <c r="R2" s="612"/>
+      <c r="S2" s="612"/>
+      <c r="T2" s="608"/>
+      <c r="U2" s="615"/>
     </row>
     <row r="3" spans="1:21" ht="78.75">
       <c r="A3" s="479" t="s">
@@ -7077,7 +7110,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="307">
         <v>1</v>
@@ -8165,8 +8198,8 @@
       <c r="F20" s="502">
         <v>2</v>
       </c>
-      <c r="G20" s="502" t="s">
-        <v>24</v>
+      <c r="G20" s="604" t="s">
+        <v>599</v>
       </c>
       <c r="H20" s="503">
         <v>2</v>
@@ -8288,13 +8321,13 @@
         <v>68</v>
       </c>
       <c r="E22" s="306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="307">
         <v>3</v>
       </c>
       <c r="G22" s="307" t="s">
-        <v>116</v>
+        <v>596</v>
       </c>
       <c r="H22" s="481">
         <v>0</v>
@@ -8323,8 +8356,8 @@
       <c r="P22" s="488" t="s">
         <v>564</v>
       </c>
-      <c r="Q22" s="306" t="s">
-        <v>26</v>
+      <c r="Q22" s="605" t="s">
+        <v>597</v>
       </c>
       <c r="R22" s="306" t="s">
         <v>520</v>
@@ -8648,8 +8681,8 @@
       <c r="P27" s="565" t="s">
         <v>582</v>
       </c>
-      <c r="Q27" s="328" t="s">
-        <v>93</v>
+      <c r="Q27" s="606" t="s">
+        <v>598</v>
       </c>
       <c r="R27" s="328" t="s">
         <v>30</v>
@@ -8923,37 +8956,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
-      <c r="A1" s="616" t="s">
+      <c r="A1" s="619" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="616"/>
-      <c r="C1" s="616"/>
-      <c r="D1" s="616"/>
-      <c r="E1" s="616"/>
-      <c r="F1" s="616"/>
-      <c r="G1" s="616"/>
-      <c r="H1" s="616" t="s">
+      <c r="B1" s="619"/>
+      <c r="C1" s="619"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="616"/>
-      <c r="J1" s="616"/>
-      <c r="K1" s="617" t="s">
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="620" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="618"/>
-      <c r="M1" s="616"/>
-      <c r="N1" s="619"/>
-      <c r="O1" s="619"/>
-      <c r="P1" s="616"/>
-      <c r="Q1" s="618"/>
-      <c r="R1" s="616"/>
-      <c r="S1" s="616"/>
-      <c r="T1" s="620"/>
-      <c r="U1" s="616"/>
-      <c r="V1" s="618"/>
-      <c r="W1" s="621"/>
-      <c r="X1" s="616"/>
-      <c r="Y1" s="622"/>
+      <c r="L1" s="621"/>
+      <c r="M1" s="619"/>
+      <c r="N1" s="622"/>
+      <c r="O1" s="622"/>
+      <c r="P1" s="619"/>
+      <c r="Q1" s="621"/>
+      <c r="R1" s="619"/>
+      <c r="S1" s="619"/>
+      <c r="T1" s="623"/>
+      <c r="U1" s="619"/>
+      <c r="V1" s="621"/>
+      <c r="W1" s="624"/>
+      <c r="X1" s="619"/>
+      <c r="Y1" s="625"/>
       <c r="Z1" s="291"/>
       <c r="AA1" s="291"/>
       <c r="AB1" s="291"/>
@@ -9651,10 +9684,10 @@
       <c r="M10" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="623" t="s">
+      <c r="N10" s="626" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="623"/>
+      <c r="O10" s="626"/>
       <c r="P10" s="377" t="s">
         <v>25</v>
       </c>
@@ -16346,28 +16379,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="617" t="s">
+      <c r="A1" s="620" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="616" t="s">
+      <c r="B1" s="619" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="616"/>
-      <c r="D1" s="626"/>
-      <c r="E1" s="626"/>
-      <c r="F1" s="616"/>
-      <c r="G1" s="626"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="616"/>
-      <c r="J1" s="616"/>
-      <c r="K1" s="616" t="s">
+      <c r="C1" s="619"/>
+      <c r="D1" s="629"/>
+      <c r="E1" s="629"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="629"/>
+      <c r="H1" s="630"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="616"/>
-      <c r="M1" s="616"/>
-      <c r="N1" s="628"/>
-      <c r="O1" s="616"/>
-      <c r="P1" s="622" t="s">
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
+      <c r="N1" s="631"/>
+      <c r="O1" s="619"/>
+      <c r="P1" s="625" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="291"/>
@@ -16383,7 +16416,7 @@
       <c r="AA1" s="291"/>
     </row>
     <row r="2" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A2" s="629"/>
+      <c r="A2" s="632"/>
       <c r="B2" s="1" t="s">
         <v>257</v>
       </c>
@@ -16426,7 +16459,7 @@
       <c r="O2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="P2" s="637"/>
+      <c r="P2" s="640"/>
       <c r="Q2" s="291"/>
       <c r="R2" s="291"/>
       <c r="S2" s="291"/>
@@ -16440,7 +16473,7 @@
       <c r="AA2" s="291"/>
     </row>
     <row r="3" spans="1:27" ht="42" customHeight="1">
-      <c r="A3" s="630" t="s">
+      <c r="A3" s="633" t="s">
         <v>264</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -16493,7 +16526,7 @@
       <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:27" ht="42" customHeight="1">
-      <c r="A4" s="631"/>
+      <c r="A4" s="634"/>
       <c r="B4" s="14" t="s">
         <v>271</v>
       </c>
@@ -16544,7 +16577,7 @@
       <c r="S4" s="43"/>
     </row>
     <row r="5" spans="1:27" ht="42" customHeight="1">
-      <c r="A5" s="631"/>
+      <c r="A5" s="634"/>
       <c r="B5" s="14" t="s">
         <v>274</v>
       </c>
@@ -16595,7 +16628,7 @@
       <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:27" ht="42" customHeight="1">
-      <c r="A6" s="632"/>
+      <c r="A6" s="635"/>
       <c r="B6" s="161" t="s">
         <v>277</v>
       </c>
@@ -16654,7 +16687,7 @@
       <c r="AA6" s="292"/>
     </row>
     <row r="7" spans="1:27" ht="42" customHeight="1">
-      <c r="A7" s="631"/>
+      <c r="A7" s="634"/>
       <c r="B7" s="14" t="s">
         <v>280</v>
       </c>
@@ -16705,7 +16738,7 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="1:27" ht="39" customHeight="1">
-      <c r="A8" s="632"/>
+      <c r="A8" s="635"/>
       <c r="B8" s="166" t="s">
         <v>285</v>
       </c>
@@ -16764,7 +16797,7 @@
       <c r="AA8" s="292"/>
     </row>
     <row r="9" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A9" s="631"/>
+      <c r="A9" s="634"/>
       <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
@@ -16815,7 +16848,7 @@
       <c r="S9" s="43"/>
     </row>
     <row r="10" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A10" s="631"/>
+      <c r="A10" s="634"/>
       <c r="B10" s="19" t="s">
         <v>60</v>
       </c>
@@ -16866,7 +16899,7 @@
       <c r="S10" s="43"/>
     </row>
     <row r="11" spans="1:27" ht="42" customHeight="1">
-      <c r="A11" s="631"/>
+      <c r="A11" s="634"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
@@ -16915,7 +16948,7 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="1:27" ht="63.95" customHeight="1">
-      <c r="A12" s="633" t="s">
+      <c r="A12" s="636" t="s">
         <v>298</v>
       </c>
       <c r="B12" s="168" t="s">
@@ -16968,7 +17001,7 @@
       <c r="S12" s="43"/>
     </row>
     <row r="13" spans="1:27" ht="80.099999999999994" customHeight="1">
-      <c r="A13" s="634"/>
+      <c r="A13" s="637"/>
       <c r="B13" s="161" t="s">
         <v>306</v>
       </c>
@@ -17027,7 +17060,7 @@
       <c r="AA13" s="292"/>
     </row>
     <row r="14" spans="1:27" ht="144" customHeight="1">
-      <c r="A14" s="635"/>
+      <c r="A14" s="638"/>
       <c r="B14" s="14" t="s">
         <v>221</v>
       </c>
@@ -17078,7 +17111,7 @@
       <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:27" ht="128.1" customHeight="1">
-      <c r="A15" s="636"/>
+      <c r="A15" s="639"/>
       <c r="B15" s="24" t="s">
         <v>315</v>
       </c>
@@ -17129,7 +17162,7 @@
       <c r="S15" s="43"/>
     </row>
     <row r="16" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A16" s="638" t="s">
+      <c r="A16" s="641" t="s">
         <v>319</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -17180,7 +17213,7 @@
       <c r="S16" s="43"/>
     </row>
     <row r="17" spans="1:27" ht="96" customHeight="1">
-      <c r="A17" s="639"/>
+      <c r="A17" s="642"/>
       <c r="B17" s="14" t="s">
         <v>124</v>
       </c>
@@ -17231,7 +17264,7 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="1:27" ht="144" customHeight="1">
-      <c r="A18" s="638"/>
+      <c r="A18" s="641"/>
       <c r="B18" s="14" t="s">
         <v>133</v>
       </c>
@@ -17282,7 +17315,7 @@
       <c r="S18" s="43"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="624" t="s">
+      <c r="A19" s="627" t="s">
         <v>330</v>
       </c>
       <c r="B19" s="168" t="s">
@@ -17317,7 +17350,7 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:27" ht="56.1" customHeight="1">
-      <c r="A20" s="640"/>
+      <c r="A20" s="643"/>
       <c r="B20" s="161" t="s">
         <v>333</v>
       </c>
@@ -17372,7 +17405,7 @@
       <c r="AA20" s="292"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="625"/>
+      <c r="A21" s="628"/>
       <c r="B21" s="14" t="s">
         <v>336</v>
       </c>
@@ -17411,7 +17444,7 @@
       <c r="S21" s="43"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="638"/>
+      <c r="A22" s="641"/>
       <c r="B22" s="19" t="s">
         <v>46</v>
       </c>
@@ -17446,7 +17479,7 @@
       <c r="S22" s="43"/>
     </row>
     <row r="23" spans="1:27" ht="69.95" customHeight="1">
-      <c r="A23" s="641" t="s">
+      <c r="A23" s="644" t="s">
         <v>337</v>
       </c>
       <c r="B23" s="177" t="s">
@@ -17505,7 +17538,7 @@
       <c r="AA23" s="292"/>
     </row>
     <row r="24" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A24" s="640"/>
+      <c r="A24" s="643"/>
       <c r="B24" s="161" t="s">
         <v>343</v>
       </c>
@@ -17562,7 +17595,7 @@
       <c r="AA24" s="292"/>
     </row>
     <row r="25" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A25" s="640"/>
+      <c r="A25" s="643"/>
       <c r="B25" s="161" t="s">
         <v>346</v>
       </c>
@@ -17619,7 +17652,7 @@
       <c r="AA25" s="292"/>
     </row>
     <row r="26" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A26" s="625"/>
+      <c r="A26" s="628"/>
       <c r="B26" s="14" t="s">
         <v>107</v>
       </c>
@@ -17668,7 +17701,7 @@
       <c r="S26" s="43"/>
     </row>
     <row r="27" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A27" s="640"/>
+      <c r="A27" s="643"/>
       <c r="B27" s="161" t="s">
         <v>351</v>
       </c>
@@ -17725,7 +17758,7 @@
       <c r="AA27" s="292"/>
     </row>
     <row r="28" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A28" s="642"/>
+      <c r="A28" s="645"/>
       <c r="B28" s="183" t="s">
         <v>354</v>
       </c>
@@ -17782,7 +17815,7 @@
       <c r="AA28" s="292"/>
     </row>
     <row r="29" spans="1:27" ht="27.95" customHeight="1">
-      <c r="A29" s="641" t="s">
+      <c r="A29" s="644" t="s">
         <v>357</v>
       </c>
       <c r="B29" s="177" t="s">
@@ -17843,7 +17876,7 @@
       <c r="AA29" s="292"/>
     </row>
     <row r="30" spans="1:27" ht="48" customHeight="1">
-      <c r="A30" s="642"/>
+      <c r="A30" s="645"/>
       <c r="B30" s="183" t="s">
         <v>362</v>
       </c>
@@ -17951,7 +17984,7 @@
       <c r="S31" s="43"/>
     </row>
     <row r="32" spans="1:27" ht="69.95" customHeight="1">
-      <c r="A32" s="624" t="s">
+      <c r="A32" s="627" t="s">
         <v>369</v>
       </c>
       <c r="B32" s="168" t="s">
@@ -18004,7 +18037,7 @@
       <c r="S32" s="43"/>
     </row>
     <row r="33" spans="1:19" ht="56.1" customHeight="1">
-      <c r="A33" s="625"/>
+      <c r="A33" s="628"/>
       <c r="B33" s="14" t="s">
         <v>374</v>
       </c>
@@ -18051,7 +18084,7 @@
       <c r="S33" s="43"/>
     </row>
     <row r="34" spans="1:19" ht="42" customHeight="1">
-      <c r="A34" s="625"/>
+      <c r="A34" s="628"/>
       <c r="B34" s="14" t="s">
         <v>243</v>
       </c>
@@ -18100,7 +18133,7 @@
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="42" customHeight="1">
-      <c r="A35" s="625"/>
+      <c r="A35" s="628"/>
       <c r="B35" s="14" t="s">
         <v>245</v>
       </c>
@@ -18149,7 +18182,7 @@
       <c r="S35" s="43"/>
     </row>
     <row r="36" spans="1:19" ht="111.95" customHeight="1">
-      <c r="A36" s="625"/>
+      <c r="A36" s="628"/>
       <c r="B36" s="14" t="s">
         <v>247</v>
       </c>
@@ -22151,10 +22184,10 @@
       <c r="F36" s="133"/>
       <c r="G36" s="134"/>
       <c r="H36" s="135"/>
-      <c r="I36" s="643" t="s">
+      <c r="I36" s="646" t="s">
         <v>383</v>
       </c>
-      <c r="J36" s="643"/>
+      <c r="J36" s="646"/>
       <c r="K36" s="133"/>
       <c r="L36" s="134"/>
       <c r="M36" s="135"/>
@@ -22171,8 +22204,8 @@
       <c r="F37" s="139"/>
       <c r="G37" s="143"/>
       <c r="H37" s="144"/>
-      <c r="I37" s="644"/>
-      <c r="J37" s="644"/>
+      <c r="I37" s="647"/>
+      <c r="J37" s="647"/>
       <c r="K37" s="139"/>
       <c r="L37" s="143"/>
       <c r="M37" s="144"/>
@@ -22426,37 +22459,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="616" t="s">
+      <c r="A1" s="619" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="616"/>
-      <c r="C1" s="616"/>
-      <c r="D1" s="616"/>
-      <c r="E1" s="616"/>
-      <c r="F1" s="616"/>
-      <c r="G1" s="616"/>
-      <c r="H1" s="616" t="s">
+      <c r="B1" s="619"/>
+      <c r="C1" s="619"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="616"/>
-      <c r="J1" s="616"/>
-      <c r="K1" s="617" t="s">
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="620" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="645"/>
-      <c r="M1" s="616"/>
-      <c r="N1" s="619"/>
-      <c r="O1" s="619"/>
-      <c r="P1" s="616"/>
-      <c r="Q1" s="645"/>
-      <c r="R1" s="616"/>
-      <c r="S1" s="616"/>
-      <c r="T1" s="620"/>
-      <c r="U1" s="616"/>
-      <c r="V1" s="645"/>
-      <c r="W1" s="621"/>
-      <c r="X1" s="616"/>
-      <c r="Y1" s="622"/>
+      <c r="L1" s="648"/>
+      <c r="M1" s="619"/>
+      <c r="N1" s="622"/>
+      <c r="O1" s="622"/>
+      <c r="P1" s="619"/>
+      <c r="Q1" s="648"/>
+      <c r="R1" s="619"/>
+      <c r="S1" s="619"/>
+      <c r="T1" s="623"/>
+      <c r="U1" s="619"/>
+      <c r="V1" s="648"/>
+      <c r="W1" s="624"/>
+      <c r="X1" s="619"/>
+      <c r="Y1" s="625"/>
     </row>
     <row r="2" spans="1:25" ht="32.1" customHeight="1">
       <c r="A2" s="1" t="s">

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="600">
   <si>
     <t>基本属性</t>
   </si>
@@ -1956,12 +1956,6 @@
     <t>占用管理</t>
   </si>
   <si>
-    <t>维护成本</t>
-  </si>
-  <si>
-    <t>体力消耗</t>
-  </si>
-  <si>
     <t>信念减益</t>
   </si>
   <si>
@@ -2273,6 +2267,14 @@
   </si>
   <si>
     <t>3×2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买费用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2280,7 +2282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2474,6 +2476,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2519,7 +2530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="176">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4470,19 +4481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF2B2B2B"/>
@@ -4575,17 +4573,6 @@
       <left style="medium">
         <color rgb="FF2B2B2B"/>
       </left>
-      <right style="thin">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF2B2B2B"/>
@@ -4646,19 +4633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF2B2B2B"/>
@@ -4688,21 +4662,6 @@
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF2B2B2B"/>
       </right>
       <top style="thin">
         <color rgb="FF2B2B2B"/>
@@ -4743,21 +4702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF2B2B2B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF2B2B2B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF2B2B2B"/>
@@ -4774,7 +4718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="649">
+  <cellXfs count="644">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6287,12 +6231,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6380,13 +6318,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6419,40 +6354,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6479,114 +6411,105 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="171" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6596,40 +6519,40 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6656,12 +6579,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6693,24 +6634,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6720,6 +6643,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7000,88 +6929,88 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="605" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="607" t="s">
+      <c r="B1" s="609" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="609" t="s">
+      <c r="C1" s="605" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="611" t="s">
+      <c r="D1" s="607" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="611" t="s">
+      <c r="E1" s="607" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="611" t="s">
+      <c r="F1" s="607" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="611" t="s">
+      <c r="G1" s="607" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="607" t="s">
+      <c r="H1" s="609" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="609" t="s">
+      <c r="I1" s="642" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1" s="643" t="s">
+        <v>599</v>
+      </c>
+      <c r="K1" s="607" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="609" t="s">
         <v>495</v>
       </c>
-      <c r="J1" s="611" t="s">
+      <c r="M1" s="602" t="s">
         <v>496</v>
       </c>
-      <c r="K1" s="611" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="607" t="s">
+      <c r="N1" s="603"/>
+      <c r="O1" s="604"/>
+      <c r="P1" s="605" t="s">
         <v>497</v>
       </c>
-      <c r="M1" s="616" t="s">
+      <c r="Q1" s="607" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="617"/>
-      <c r="O1" s="618"/>
-      <c r="P1" s="609" t="s">
+      <c r="R1" s="607" t="s">
         <v>499</v>
       </c>
-      <c r="Q1" s="611" t="s">
+      <c r="S1" s="607" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="609" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="600" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="27.75" thickBot="1">
+      <c r="A2" s="606"/>
+      <c r="B2" s="610"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="608"/>
+      <c r="E2" s="608"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="606"/>
+      <c r="J2" s="608"/>
+      <c r="K2" s="608"/>
+      <c r="L2" s="610"/>
+      <c r="M2" s="476" t="s">
         <v>500</v>
-      </c>
-      <c r="R1" s="611" t="s">
-        <v>501</v>
-      </c>
-      <c r="S1" s="611" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="607" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="614" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="27.75" thickBot="1">
-      <c r="A2" s="610"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="612"/>
-      <c r="F2" s="613"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="610"/>
-      <c r="J2" s="612"/>
-      <c r="K2" s="612"/>
-      <c r="L2" s="608"/>
-      <c r="M2" s="476" t="s">
-        <v>502</v>
       </c>
       <c r="N2" s="477" t="s">
         <v>11</v>
@@ -7089,22 +7018,22 @@
       <c r="O2" s="478" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="610"/>
-      <c r="Q2" s="612"/>
-      <c r="R2" s="612"/>
-      <c r="S2" s="612"/>
-      <c r="T2" s="608"/>
-      <c r="U2" s="615"/>
+      <c r="P2" s="606"/>
+      <c r="Q2" s="608"/>
+      <c r="R2" s="608"/>
+      <c r="S2" s="608"/>
+      <c r="T2" s="610"/>
+      <c r="U2" s="601"/>
     </row>
     <row r="3" spans="1:21" ht="78.75">
       <c r="A3" s="479" t="s">
         <v>265</v>
       </c>
       <c r="B3" s="480" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D3" s="306" t="s">
         <v>68</v>
@@ -7122,10 +7051,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="482">
-        <v>10</v>
-      </c>
-      <c r="J3" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="307">
+        <v>200</v>
       </c>
       <c r="K3" s="483">
         <v>80</v>
@@ -7143,7 +7072,7 @@
         <v>0.2</v>
       </c>
       <c r="P3" s="488" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q3" s="306" t="s">
         <v>26</v>
@@ -7152,13 +7081,13 @@
         <v>30</v>
       </c>
       <c r="S3" s="489" t="s">
+        <v>504</v>
+      </c>
+      <c r="T3" s="490" t="s">
+        <v>505</v>
+      </c>
+      <c r="U3" s="491" t="s">
         <v>506</v>
-      </c>
-      <c r="T3" s="490" t="s">
-        <v>507</v>
-      </c>
-      <c r="U3" s="491" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="78.75">
@@ -7166,10 +7095,10 @@
         <v>265</v>
       </c>
       <c r="B4" s="480" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C4" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D4" s="306" t="s">
         <v>68</v>
@@ -7187,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="482">
-        <v>20</v>
-      </c>
-      <c r="J4" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="307">
+        <v>200</v>
       </c>
       <c r="K4" s="483">
         <v>120</v>
@@ -7208,7 +7137,7 @@
         <v>0.2</v>
       </c>
       <c r="P4" s="488" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="306" t="s">
         <v>26</v>
@@ -7217,10 +7146,10 @@
         <v>85</v>
       </c>
       <c r="S4" s="489" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="T4" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U4" s="491"/>
     </row>
@@ -7229,10 +7158,10 @@
         <v>265</v>
       </c>
       <c r="B5" s="480" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C5" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5" s="312" t="s">
         <v>68</v>
@@ -7250,10 +7179,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="482">
-        <v>20</v>
-      </c>
-      <c r="J5" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="307">
+        <v>200</v>
       </c>
       <c r="K5" s="483">
         <v>64</v>
@@ -7271,7 +7200,7 @@
         <v>0.2</v>
       </c>
       <c r="P5" s="488" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q5" s="306" t="s">
         <v>26</v>
@@ -7280,10 +7209,10 @@
         <v>93</v>
       </c>
       <c r="S5" s="489" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="T5" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U5" s="491"/>
     </row>
@@ -7292,10 +7221,10 @@
         <v>274</v>
       </c>
       <c r="B6" s="493" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C6" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D6" s="312" t="s">
         <v>68</v>
@@ -7313,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="482">
-        <v>10</v>
-      </c>
-      <c r="J6" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="307">
+        <v>200</v>
       </c>
       <c r="K6" s="483">
         <v>80</v>
@@ -7334,7 +7263,7 @@
         <v>0.2</v>
       </c>
       <c r="P6" s="496" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="312" t="s">
         <v>34</v>
@@ -7343,10 +7272,10 @@
         <v>146</v>
       </c>
       <c r="S6" s="489" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="T6" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U6" s="491"/>
     </row>
@@ -7355,10 +7284,10 @@
         <v>274</v>
       </c>
       <c r="B7" s="493" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C7" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D7" s="312" t="s">
         <v>68</v>
@@ -7376,10 +7305,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="482">
-        <v>20</v>
-      </c>
-      <c r="J7" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="307">
+        <v>200</v>
       </c>
       <c r="K7" s="483">
         <v>160</v>
@@ -7397,19 +7326,19 @@
         <v>0.2</v>
       </c>
       <c r="P7" s="496" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="312" t="s">
         <v>34</v>
       </c>
       <c r="R7" s="312" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S7" s="489" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="T7" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U7" s="491"/>
     </row>
@@ -7418,10 +7347,10 @@
         <v>274</v>
       </c>
       <c r="B8" s="493" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C8" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D8" s="312" t="s">
         <v>68</v>
@@ -7439,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="482">
-        <v>20</v>
-      </c>
-      <c r="J8" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="307">
+        <v>200</v>
       </c>
       <c r="K8" s="483">
         <v>64</v>
@@ -7460,7 +7389,7 @@
         <v>0.2</v>
       </c>
       <c r="P8" s="496" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q8" s="312" t="s">
         <v>34</v>
@@ -7469,10 +7398,10 @@
         <v>62</v>
       </c>
       <c r="S8" s="489" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T8" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U8" s="491"/>
     </row>
@@ -7481,10 +7410,10 @@
         <v>271</v>
       </c>
       <c r="B9" s="493" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C9" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D9" s="312" t="s">
         <v>68</v>
@@ -7502,10 +7431,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="482">
-        <v>20</v>
-      </c>
-      <c r="J9" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J9" s="307">
+        <v>200</v>
       </c>
       <c r="K9" s="483">
         <v>80</v>
@@ -7523,7 +7452,7 @@
         <v>0.2</v>
       </c>
       <c r="P9" s="496" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q9" s="497" t="s">
         <v>30</v>
@@ -7532,10 +7461,10 @@
         <v>34</v>
       </c>
       <c r="S9" s="489" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="T9" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U9" s="491"/>
     </row>
@@ -7544,10 +7473,10 @@
         <v>271</v>
       </c>
       <c r="B10" s="493" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C10" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D10" s="312" t="s">
         <v>68</v>
@@ -7565,10 +7494,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="482">
-        <v>20</v>
-      </c>
-      <c r="J10" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J10" s="307">
+        <v>200</v>
       </c>
       <c r="K10" s="483">
         <v>80</v>
@@ -7586,7 +7515,7 @@
         <v>0.2</v>
       </c>
       <c r="P10" s="496" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="497" t="s">
         <v>30</v>
@@ -7595,10 +7524,10 @@
         <v>57</v>
       </c>
       <c r="S10" s="489" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="T10" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U10" s="491"/>
     </row>
@@ -7607,10 +7536,10 @@
         <v>271</v>
       </c>
       <c r="B11" s="493" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C11" s="305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D11" s="312" t="s">
         <v>68</v>
@@ -7628,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="482">
-        <v>20</v>
-      </c>
-      <c r="J11" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J11" s="307">
+        <v>200</v>
       </c>
       <c r="K11" s="483">
         <v>80</v>
@@ -7649,7 +7578,7 @@
         <v>0.2</v>
       </c>
       <c r="P11" s="496" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="497" t="s">
         <v>30</v>
@@ -7658,10 +7587,10 @@
         <v>62</v>
       </c>
       <c r="S11" s="489" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="T11" s="490" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U11" s="491"/>
     </row>
@@ -7670,10 +7599,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="500" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C12" s="501" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D12" s="340" t="s">
         <v>68</v>
@@ -7690,29 +7619,29 @@
       <c r="H12" s="503">
         <v>0</v>
       </c>
-      <c r="I12" s="504">
-        <v>20</v>
-      </c>
-      <c r="J12" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="506">
+      <c r="I12" s="482">
+        <v>50</v>
+      </c>
+      <c r="J12" s="307">
+        <v>200</v>
+      </c>
+      <c r="K12" s="504">
         <v>80</v>
       </c>
-      <c r="L12" s="507">
+      <c r="L12" s="505">
         <v>-30</v>
       </c>
-      <c r="M12" s="508">
+      <c r="M12" s="506">
         <v>8</v>
       </c>
-      <c r="N12" s="509">
+      <c r="N12" s="507">
         <v>0</v>
       </c>
-      <c r="O12" s="510">
+      <c r="O12" s="508">
         <v>0.2</v>
       </c>
-      <c r="P12" s="511" t="s">
-        <v>535</v>
+      <c r="P12" s="509" t="s">
+        <v>533</v>
       </c>
       <c r="Q12" s="340" t="s">
         <v>30</v>
@@ -7720,19 +7649,19 @@
       <c r="R12" s="340" t="s">
         <v>195</v>
       </c>
-      <c r="S12" s="512" t="s">
-        <v>536</v>
-      </c>
-      <c r="T12" s="513" t="s">
-        <v>507</v>
+      <c r="S12" s="510" t="s">
+        <v>534</v>
+      </c>
+      <c r="T12" s="511" t="s">
+        <v>505</v>
       </c>
       <c r="U12" s="491"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="514" t="s">
+      <c r="A13" s="512" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="515" t="s">
+      <c r="B13" s="513" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="327" t="s">
@@ -7750,14 +7679,14 @@
       <c r="G13" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="516">
+      <c r="H13" s="514">
         <v>2</v>
       </c>
-      <c r="I13" s="482" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="307" t="s">
-        <v>25</v>
+      <c r="I13" s="482">
+        <v>50</v>
+      </c>
+      <c r="J13" s="307">
+        <v>200</v>
       </c>
       <c r="K13" s="483" t="s">
         <v>25</v>
@@ -7765,13 +7694,13 @@
       <c r="L13" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="517" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="519" t="s">
+      <c r="M13" s="515" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="516" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="517" t="s">
         <v>25</v>
       </c>
       <c r="P13" s="488" t="s">
@@ -7783,19 +7712,19 @@
       <c r="R13" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="520" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="521" t="s">
+      <c r="S13" s="518" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="519" t="s">
         <v>25</v>
       </c>
       <c r="U13" s="491"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="522" t="s">
+      <c r="A14" s="520" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="523" t="s">
+      <c r="B14" s="521" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="317" t="s">
@@ -7813,16 +7742,16 @@
       <c r="G14" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="524">
+      <c r="H14" s="522">
         <v>2</v>
       </c>
-      <c r="I14" s="482" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="307" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="525" t="s">
+      <c r="I14" s="482">
+        <v>50</v>
+      </c>
+      <c r="J14" s="307">
+        <v>200</v>
+      </c>
+      <c r="K14" s="523" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="484" t="s">
@@ -7834,7 +7763,7 @@
       <c r="N14" s="313" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="526" t="s">
+      <c r="O14" s="524" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="496" t="s">
@@ -7846,49 +7775,49 @@
       <c r="R14" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="527" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" s="521" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" s="528"/>
+      <c r="S14" s="525" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="519" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="526"/>
     </row>
     <row r="15" spans="1:21" ht="72">
-      <c r="A15" s="529" t="s">
+      <c r="A15" s="527" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="530" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" s="531" t="s">
-        <v>538</v>
-      </c>
-      <c r="D15" s="532" t="s">
+      <c r="B15" s="528" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="529" t="s">
+        <v>536</v>
+      </c>
+      <c r="D15" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="532">
+      <c r="E15" s="530">
         <v>2</v>
       </c>
-      <c r="F15" s="533">
+      <c r="F15" s="531">
         <v>2</v>
       </c>
-      <c r="G15" s="533" t="s">
+      <c r="G15" s="531" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="534">
+      <c r="H15" s="532">
         <v>2</v>
       </c>
-      <c r="I15" s="535">
-        <v>30</v>
-      </c>
-      <c r="J15" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="536">
+      <c r="I15" s="482">
+        <v>50</v>
+      </c>
+      <c r="J15" s="307">
+        <v>200</v>
+      </c>
+      <c r="K15" s="533">
         <v>16</v>
       </c>
-      <c r="L15" s="537" t="s">
+      <c r="L15" s="534" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="485">
@@ -7900,23 +7829,23 @@
       <c r="O15" s="487">
         <v>0.2</v>
       </c>
-      <c r="P15" s="538" t="s">
+      <c r="P15" s="535" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q15" s="530" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" s="530" t="s">
+        <v>518</v>
+      </c>
+      <c r="S15" s="536" t="s">
+        <v>538</v>
+      </c>
+      <c r="T15" s="537" t="s">
         <v>539</v>
       </c>
-      <c r="Q15" s="532" t="s">
-        <v>126</v>
-      </c>
-      <c r="R15" s="532" t="s">
-        <v>520</v>
-      </c>
-      <c r="S15" s="539" t="s">
+      <c r="U15" s="526" t="s">
         <v>540</v>
-      </c>
-      <c r="T15" s="540" t="s">
-        <v>541</v>
-      </c>
-      <c r="U15" s="528" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="157.5">
@@ -7924,10 +7853,10 @@
         <v>124</v>
       </c>
       <c r="B16" s="480" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C16" s="334" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D16" s="306" t="s">
         <v>68</v>
@@ -7945,10 +7874,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="482">
-        <v>5</v>
-      </c>
-      <c r="J16" s="307" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J16" s="307">
+        <v>200</v>
       </c>
       <c r="K16" s="483" t="s">
         <v>25</v>
@@ -7956,13 +7885,13 @@
       <c r="L16" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="517" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="519" t="s">
+      <c r="M16" s="515" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="516" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="517" t="s">
         <v>25</v>
       </c>
       <c r="P16" s="488" t="s">
@@ -7974,14 +7903,14 @@
       <c r="R16" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="541" t="s">
-        <v>544</v>
-      </c>
-      <c r="T16" s="521" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="528" t="s">
-        <v>545</v>
+      <c r="S16" s="538" t="s">
+        <v>542</v>
+      </c>
+      <c r="T16" s="519" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="526" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="45.75" thickBot="1">
@@ -7989,10 +7918,10 @@
         <v>124</v>
       </c>
       <c r="B17" s="500" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C17" s="501" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D17" s="340" t="s">
         <v>68</v>
@@ -8009,28 +7938,28 @@
       <c r="H17" s="503">
         <v>1</v>
       </c>
-      <c r="I17" s="504">
-        <v>20</v>
-      </c>
-      <c r="J17" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="542" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="507" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="508" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="543" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="544" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="511" t="s">
+      <c r="I17" s="482">
+        <v>50</v>
+      </c>
+      <c r="J17" s="307">
+        <v>200</v>
+      </c>
+      <c r="K17" s="539" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="505" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="506" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="540" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="541" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="509" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="340" t="s">
@@ -8039,155 +7968,155 @@
       <c r="R17" s="340" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="545" t="s">
+      <c r="S17" s="542" t="s">
+        <v>546</v>
+      </c>
+      <c r="T17" s="543" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="544" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="78.75">
+      <c r="A18" s="545" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="546" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="547" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="548" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="548">
+        <v>2</v>
+      </c>
+      <c r="F18" s="516">
+        <v>1</v>
+      </c>
+      <c r="G18" s="516" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="517">
+        <v>2</v>
+      </c>
+      <c r="I18" s="482">
+        <v>50</v>
+      </c>
+      <c r="J18" s="307">
+        <v>200</v>
+      </c>
+      <c r="K18" s="549">
+        <v>48</v>
+      </c>
+      <c r="L18" s="534" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="515">
+        <v>8</v>
+      </c>
+      <c r="N18" s="550">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="551">
+        <v>0.4</v>
+      </c>
+      <c r="P18" s="552" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="548" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="548" t="s">
+        <v>146</v>
+      </c>
+      <c r="S18" s="553" t="s">
         <v>548</v>
       </c>
-      <c r="T17" s="546" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="547" t="s">
+      <c r="T18" s="537" t="s">
+        <v>505</v>
+      </c>
+      <c r="U18" s="526" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="78.75">
-      <c r="A18" s="548" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="549" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="550" t="s">
-        <v>538</v>
-      </c>
-      <c r="D18" s="551" t="s">
+    <row r="19" spans="1:21" ht="84">
+      <c r="A19" s="545" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="546" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" s="547" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="548" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="551">
+      <c r="E19" s="548">
         <v>2</v>
       </c>
-      <c r="F18" s="518">
+      <c r="F19" s="516">
         <v>1</v>
       </c>
-      <c r="G18" s="518" t="s">
+      <c r="G19" s="516" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="519">
-        <v>2</v>
-      </c>
-      <c r="I18" s="535">
-        <v>10</v>
-      </c>
-      <c r="J18" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="552">
-        <v>48</v>
-      </c>
-      <c r="L18" s="537" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="517">
+      <c r="H19" s="517">
+        <v>0</v>
+      </c>
+      <c r="I19" s="482">
+        <v>50</v>
+      </c>
+      <c r="J19" s="307">
+        <v>200</v>
+      </c>
+      <c r="K19" s="549">
+        <v>80</v>
+      </c>
+      <c r="L19" s="484" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="515">
         <v>8</v>
       </c>
-      <c r="N18" s="553">
+      <c r="N19" s="550">
         <v>0.2</v>
       </c>
-      <c r="O18" s="554">
+      <c r="O19" s="551">
         <v>0.4</v>
       </c>
-      <c r="P18" s="555" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q18" s="551" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="551" t="s">
-        <v>146</v>
-      </c>
-      <c r="S18" s="556" t="s">
-        <v>550</v>
-      </c>
-      <c r="T18" s="540" t="s">
-        <v>507</v>
-      </c>
-      <c r="U18" s="528" t="s">
+      <c r="P19" s="552" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="84">
-      <c r="A19" s="548" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="549" t="s">
+      <c r="Q19" s="548" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="548" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" s="553" t="s">
         <v>552</v>
       </c>
-      <c r="C19" s="550" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="551" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="551">
-        <v>2</v>
-      </c>
-      <c r="F19" s="518">
-        <v>1</v>
-      </c>
-      <c r="G19" s="518" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="519">
-        <v>0</v>
-      </c>
-      <c r="I19" s="482">
-        <v>10</v>
-      </c>
-      <c r="J19" s="307" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="552">
-        <v>80</v>
-      </c>
-      <c r="L19" s="484" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="517">
-        <v>8</v>
-      </c>
-      <c r="N19" s="553">
-        <v>0.2</v>
-      </c>
-      <c r="O19" s="554">
-        <v>0.4</v>
-      </c>
-      <c r="P19" s="555" t="s">
+      <c r="T19" s="490" t="s">
+        <v>505</v>
+      </c>
+      <c r="U19" s="526" t="s">
         <v>553</v>
-      </c>
-      <c r="Q19" s="551" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="551" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="556" t="s">
-        <v>554</v>
-      </c>
-      <c r="T19" s="490" t="s">
-        <v>507</v>
-      </c>
-      <c r="U19" s="528" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="79.5" thickBot="1">
       <c r="A20" s="499" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B20" s="500" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C20" s="501" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D20" s="340" t="s">
         <v>68</v>
@@ -8198,34 +8127,34 @@
       <c r="F20" s="502">
         <v>2</v>
       </c>
-      <c r="G20" s="604" t="s">
-        <v>599</v>
+      <c r="G20" s="597" t="s">
+        <v>597</v>
       </c>
       <c r="H20" s="503">
         <v>2</v>
       </c>
-      <c r="I20" s="504">
-        <v>10</v>
-      </c>
-      <c r="J20" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="542">
+      <c r="I20" s="482">
+        <v>50</v>
+      </c>
+      <c r="J20" s="307">
+        <v>200</v>
+      </c>
+      <c r="K20" s="539">
         <v>32</v>
       </c>
-      <c r="L20" s="507" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="508">
+      <c r="L20" s="505" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="506">
         <v>8</v>
       </c>
-      <c r="N20" s="509">
+      <c r="N20" s="507">
         <v>0.2</v>
       </c>
-      <c r="O20" s="510">
+      <c r="O20" s="508">
         <v>0.4</v>
       </c>
-      <c r="P20" s="511" t="s">
+      <c r="P20" s="509" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="340" t="s">
@@ -8234,14 +8163,14 @@
       <c r="R20" s="340" t="s">
         <v>195</v>
       </c>
-      <c r="S20" s="512" t="s">
-        <v>557</v>
-      </c>
-      <c r="T20" s="513" t="s">
-        <v>507</v>
-      </c>
-      <c r="U20" s="547" t="s">
-        <v>558</v>
+      <c r="S20" s="510" t="s">
+        <v>555</v>
+      </c>
+      <c r="T20" s="511" t="s">
+        <v>505</v>
+      </c>
+      <c r="U20" s="544" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="78.75">
@@ -8249,10 +8178,10 @@
         <v>107</v>
       </c>
       <c r="B21" s="480" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C21" s="334" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D21" s="306" t="s">
         <v>68</v>
@@ -8270,24 +8199,24 @@
         <v>2</v>
       </c>
       <c r="I21" s="482">
-        <v>10</v>
-      </c>
-      <c r="J21" s="307" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="552">
+        <v>50</v>
+      </c>
+      <c r="J21" s="307">
+        <v>200</v>
+      </c>
+      <c r="K21" s="549">
         <v>32</v>
       </c>
       <c r="L21" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="517">
+      <c r="M21" s="515">
         <v>8</v>
       </c>
-      <c r="N21" s="553">
+      <c r="N21" s="550">
         <v>0.2</v>
       </c>
-      <c r="O21" s="554">
+      <c r="O21" s="551">
         <v>0.4</v>
       </c>
       <c r="P21" s="488" t="s">
@@ -8300,22 +8229,22 @@
         <v>62</v>
       </c>
       <c r="S21" s="489" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T21" s="490" t="s">
-        <v>507</v>
-      </c>
-      <c r="U21" s="528" t="s">
-        <v>562</v>
+        <v>505</v>
+      </c>
+      <c r="U21" s="526" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="202.5">
       <c r="A22" s="479"/>
       <c r="B22" s="480" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C22" s="334" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D22" s="306" t="s">
         <v>68</v>
@@ -8327,49 +8256,49 @@
         <v>3</v>
       </c>
       <c r="G22" s="307" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H22" s="481">
         <v>0</v>
       </c>
       <c r="I22" s="482">
-        <v>100</v>
-      </c>
-      <c r="J22" s="307" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="552">
+        <v>50</v>
+      </c>
+      <c r="J22" s="307">
+        <v>200</v>
+      </c>
+      <c r="K22" s="549">
         <v>32</v>
       </c>
       <c r="L22" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="517">
+      <c r="M22" s="515">
         <v>8</v>
       </c>
-      <c r="N22" s="553">
+      <c r="N22" s="550">
         <v>0.2</v>
       </c>
-      <c r="O22" s="554">
+      <c r="O22" s="551">
         <v>0.4</v>
       </c>
       <c r="P22" s="488" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q22" s="598" t="s">
+        <v>595</v>
+      </c>
+      <c r="R22" s="306" t="s">
+        <v>518</v>
+      </c>
+      <c r="S22" s="489" t="s">
+        <v>563</v>
+      </c>
+      <c r="T22" s="490" t="s">
+        <v>505</v>
+      </c>
+      <c r="U22" s="526" t="s">
         <v>564</v>
-      </c>
-      <c r="Q22" s="605" t="s">
-        <v>597</v>
-      </c>
-      <c r="R22" s="306" t="s">
-        <v>520</v>
-      </c>
-      <c r="S22" s="489" t="s">
-        <v>565</v>
-      </c>
-      <c r="T22" s="490" t="s">
-        <v>507</v>
-      </c>
-      <c r="U22" s="528" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="79.5" thickBot="1">
@@ -8377,10 +8306,10 @@
         <v>151</v>
       </c>
       <c r="B23" s="500" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C23" s="501" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D23" s="340" t="s">
         <v>68</v>
@@ -8397,29 +8326,29 @@
       <c r="H23" s="503">
         <v>2</v>
       </c>
-      <c r="I23" s="504">
-        <v>15</v>
-      </c>
-      <c r="J23" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="557">
+      <c r="I23" s="482">
+        <v>50</v>
+      </c>
+      <c r="J23" s="307">
+        <v>200</v>
+      </c>
+      <c r="K23" s="554">
         <v>32</v>
       </c>
-      <c r="L23" s="507" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="508">
+      <c r="L23" s="505" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="506">
         <v>10</v>
       </c>
-      <c r="N23" s="509">
+      <c r="N23" s="507">
         <v>0.2</v>
       </c>
-      <c r="O23" s="510">
+      <c r="O23" s="508">
         <v>0.4</v>
       </c>
-      <c r="P23" s="511" t="s">
-        <v>568</v>
+      <c r="P23" s="509" t="s">
+        <v>566</v>
       </c>
       <c r="Q23" s="340" t="s">
         <v>26</v>
@@ -8427,14 +8356,14 @@
       <c r="R23" s="340" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="512" t="s">
-        <v>569</v>
-      </c>
-      <c r="T23" s="513" t="s">
-        <v>507</v>
-      </c>
-      <c r="U23" s="528" t="s">
-        <v>570</v>
+      <c r="S23" s="510" t="s">
+        <v>567</v>
+      </c>
+      <c r="T23" s="511" t="s">
+        <v>505</v>
+      </c>
+      <c r="U23" s="526" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="78.75">
@@ -8445,7 +8374,7 @@
         <v>115</v>
       </c>
       <c r="C24" s="334" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D24" s="306" t="s">
         <v>68</v>
@@ -8465,26 +8394,26 @@
       <c r="I24" s="482">
         <v>50</v>
       </c>
-      <c r="J24" s="307" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="552">
+      <c r="J24" s="307">
+        <v>200</v>
+      </c>
+      <c r="K24" s="549">
         <v>32</v>
       </c>
       <c r="L24" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="517">
+      <c r="M24" s="515">
         <v>10</v>
       </c>
-      <c r="N24" s="553">
+      <c r="N24" s="550">
         <v>0.2</v>
       </c>
-      <c r="O24" s="554">
+      <c r="O24" s="551">
         <v>0.4</v>
       </c>
       <c r="P24" s="488" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="306" t="s">
         <v>138</v>
@@ -8493,50 +8422,50 @@
         <v>93</v>
       </c>
       <c r="S24" s="489" t="s">
+        <v>570</v>
+      </c>
+      <c r="T24" s="490" t="s">
+        <v>505</v>
+      </c>
+      <c r="U24" s="526" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="78.75">
+      <c r="A25" s="527" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="528" t="s">
         <v>572</v>
       </c>
-      <c r="T24" s="490" t="s">
-        <v>507</v>
-      </c>
-      <c r="U24" s="528" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="78.75">
-      <c r="A25" s="529" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="530" t="s">
-        <v>574</v>
-      </c>
-      <c r="C25" s="531" t="s">
-        <v>538</v>
-      </c>
-      <c r="D25" s="532" t="s">
+      <c r="C25" s="529" t="s">
+        <v>536</v>
+      </c>
+      <c r="D25" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="532">
+      <c r="E25" s="530">
         <v>1</v>
       </c>
-      <c r="F25" s="533">
+      <c r="F25" s="531">
         <v>2</v>
       </c>
-      <c r="G25" s="533" t="s">
+      <c r="G25" s="531" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="534">
+      <c r="H25" s="532">
         <v>0</v>
       </c>
-      <c r="I25" s="535">
-        <v>10</v>
-      </c>
-      <c r="J25" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="558">
+      <c r="I25" s="482">
+        <v>50</v>
+      </c>
+      <c r="J25" s="307">
+        <v>200</v>
+      </c>
+      <c r="K25" s="555">
         <v>32</v>
       </c>
-      <c r="L25" s="537" t="s">
+      <c r="L25" s="534" t="s">
         <v>25</v>
       </c>
       <c r="M25" s="485">
@@ -8548,60 +8477,60 @@
       <c r="O25" s="487">
         <v>0.4</v>
       </c>
-      <c r="P25" s="538" t="s">
+      <c r="P25" s="535" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q25" s="530" t="s">
+        <v>146</v>
+      </c>
+      <c r="R25" s="530" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" s="536" t="s">
+        <v>574</v>
+      </c>
+      <c r="T25" s="537" t="s">
+        <v>505</v>
+      </c>
+      <c r="U25" s="526" t="s">
         <v>575</v>
       </c>
-      <c r="Q25" s="532" t="s">
-        <v>146</v>
-      </c>
-      <c r="R25" s="532" t="s">
-        <v>62</v>
-      </c>
-      <c r="S25" s="539" t="s">
+    </row>
+    <row r="26" spans="1:21" ht="78.75">
+      <c r="A26" s="527" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="528" t="s">
         <v>576</v>
       </c>
-      <c r="T25" s="540" t="s">
-        <v>507</v>
-      </c>
-      <c r="U25" s="528" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="78.75">
-      <c r="A26" s="529" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="530" t="s">
-        <v>578</v>
-      </c>
-      <c r="C26" s="531" t="s">
-        <v>560</v>
-      </c>
-      <c r="D26" s="532" t="s">
+      <c r="C26" s="529" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="530" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="532">
+      <c r="E26" s="530">
         <v>1</v>
       </c>
-      <c r="F26" s="533">
+      <c r="F26" s="531">
         <v>2</v>
       </c>
-      <c r="G26" s="533" t="s">
+      <c r="G26" s="531" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="534">
+      <c r="H26" s="532">
         <v>0</v>
       </c>
-      <c r="I26" s="535">
-        <v>10</v>
-      </c>
-      <c r="J26" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="558">
+      <c r="I26" s="482">
+        <v>50</v>
+      </c>
+      <c r="J26" s="307">
+        <v>200</v>
+      </c>
+      <c r="K26" s="555">
         <v>32</v>
       </c>
-      <c r="L26" s="537" t="s">
+      <c r="L26" s="534" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="485">
@@ -8613,34 +8542,34 @@
       <c r="O26" s="487">
         <v>0.4</v>
       </c>
-      <c r="P26" s="538" t="s">
+      <c r="P26" s="535" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q26" s="530" t="s">
+        <v>195</v>
+      </c>
+      <c r="R26" s="530" t="s">
+        <v>126</v>
+      </c>
+      <c r="S26" s="536" t="s">
+        <v>578</v>
+      </c>
+      <c r="T26" s="537" t="s">
+        <v>505</v>
+      </c>
+      <c r="U26" s="526" t="s">
         <v>579</v>
       </c>
-      <c r="Q26" s="532" t="s">
-        <v>195</v>
-      </c>
-      <c r="R26" s="532" t="s">
-        <v>126</v>
-      </c>
-      <c r="S26" s="539" t="s">
-        <v>580</v>
-      </c>
-      <c r="T26" s="540" t="s">
-        <v>507</v>
-      </c>
-      <c r="U26" s="528" t="s">
-        <v>581</v>
-      </c>
     </row>
     <row r="27" spans="1:21" ht="79.5" thickBot="1">
-      <c r="A27" s="514" t="s">
+      <c r="A27" s="512" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="515" t="s">
+      <c r="B27" s="513" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="327" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D27" s="328" t="s">
         <v>68</v>
@@ -8654,120 +8583,120 @@
       <c r="G27" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="516">
+      <c r="H27" s="514">
         <v>0</v>
       </c>
-      <c r="I27" s="559">
-        <v>20</v>
-      </c>
-      <c r="J27" s="329" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="560">
+      <c r="I27" s="482">
+        <v>50</v>
+      </c>
+      <c r="J27" s="307">
+        <v>200</v>
+      </c>
+      <c r="K27" s="556">
         <v>80</v>
       </c>
-      <c r="L27" s="561" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="562">
+      <c r="L27" s="557" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="558">
         <v>10</v>
       </c>
-      <c r="N27" s="563">
+      <c r="N27" s="559">
         <v>0.2</v>
       </c>
-      <c r="O27" s="564">
+      <c r="O27" s="560">
         <v>0.4</v>
       </c>
-      <c r="P27" s="565" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q27" s="606" t="s">
-        <v>598</v>
+      <c r="P27" s="561" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q27" s="599" t="s">
+        <v>596</v>
       </c>
       <c r="R27" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="566" t="s">
+      <c r="S27" s="562" t="s">
+        <v>581</v>
+      </c>
+      <c r="T27" s="563" t="s">
+        <v>505</v>
+      </c>
+      <c r="U27" s="526" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="84">
+      <c r="A28" s="564"/>
+      <c r="B28" s="565" t="s">
         <v>583</v>
       </c>
-      <c r="T27" s="567" t="s">
-        <v>507</v>
-      </c>
-      <c r="U27" s="528" t="s">
+      <c r="C28" s="566" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="567" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="567">
+        <v>2</v>
+      </c>
+      <c r="F28" s="568">
+        <v>3</v>
+      </c>
+      <c r="G28" s="568" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="569">
+        <v>0</v>
+      </c>
+      <c r="I28" s="482">
+        <v>50</v>
+      </c>
+      <c r="J28" s="307">
+        <v>200</v>
+      </c>
+      <c r="K28" s="570">
+        <v>80</v>
+      </c>
+      <c r="L28" s="571" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="572">
+        <v>10</v>
+      </c>
+      <c r="N28" s="573">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="574">
+        <v>0.4</v>
+      </c>
+      <c r="P28" s="575" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="84">
-      <c r="A28" s="568"/>
-      <c r="B28" s="569" t="s">
+      <c r="Q28" s="567" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="567" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="576" t="s">
         <v>585</v>
       </c>
-      <c r="C28" s="570" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="571" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="571">
-        <v>2</v>
-      </c>
-      <c r="F28" s="572">
-        <v>3</v>
-      </c>
-      <c r="G28" s="572" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="573">
-        <v>0</v>
-      </c>
-      <c r="I28" s="574">
-        <v>10</v>
-      </c>
-      <c r="J28" s="572" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="575">
-        <v>80</v>
-      </c>
-      <c r="L28" s="576" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="577">
-        <v>10</v>
-      </c>
-      <c r="N28" s="578">
-        <v>0.2</v>
-      </c>
-      <c r="O28" s="579">
-        <v>0.4</v>
-      </c>
-      <c r="P28" s="580" t="s">
+      <c r="T28" s="577" t="s">
+        <v>505</v>
+      </c>
+      <c r="U28" s="578" t="s">
         <v>586</v>
       </c>
-      <c r="Q28" s="571" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="571" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" s="581" t="s">
-        <v>587</v>
-      </c>
-      <c r="T28" s="582" t="s">
-        <v>507</v>
-      </c>
-      <c r="U28" s="583" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="29" spans="1:21" ht="78.75">
-      <c r="A29" s="584" t="s">
+      <c r="A29" s="579" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="585" t="s">
+      <c r="B29" s="580" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="586" t="s">
+      <c r="C29" s="581" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="332" t="s">
@@ -8782,19 +8711,19 @@
       <c r="G29" s="313" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="526">
+      <c r="H29" s="524">
         <v>0</v>
       </c>
-      <c r="I29" s="587">
-        <v>10</v>
-      </c>
-      <c r="J29" s="313" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="558">
+      <c r="I29" s="482">
+        <v>50</v>
+      </c>
+      <c r="J29" s="307">
+        <v>200</v>
+      </c>
+      <c r="K29" s="555">
         <v>56</v>
       </c>
-      <c r="L29" s="588" t="s">
+      <c r="L29" s="582" t="s">
         <v>25</v>
       </c>
       <c r="M29" s="485">
@@ -8806,7 +8735,7 @@
       <c r="O29" s="487">
         <v>0.4</v>
       </c>
-      <c r="P29" s="589" t="s">
+      <c r="P29" s="583" t="s">
         <v>89</v>
       </c>
       <c r="Q29" s="332" t="s">
@@ -8815,25 +8744,25 @@
       <c r="R29" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="S29" s="590" t="s">
+      <c r="S29" s="584" t="s">
+        <v>587</v>
+      </c>
+      <c r="T29" s="585" t="s">
+        <v>505</v>
+      </c>
+      <c r="U29" s="586" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="101.25">
+      <c r="A30" s="587" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="588" t="s">
         <v>589</v>
       </c>
-      <c r="T29" s="591" t="s">
-        <v>507</v>
-      </c>
-      <c r="U29" s="592" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="101.25">
-      <c r="A30" s="593" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="594" t="s">
-        <v>591</v>
-      </c>
-      <c r="C30" s="595" t="s">
-        <v>547</v>
+      <c r="C30" s="589" t="s">
+        <v>545</v>
       </c>
       <c r="D30" s="336" t="s">
         <v>68</v>
@@ -8841,25 +8770,25 @@
       <c r="E30" s="336">
         <v>2</v>
       </c>
-      <c r="F30" s="596">
+      <c r="F30" s="590">
         <v>2</v>
       </c>
-      <c r="G30" s="596" t="s">
+      <c r="G30" s="590" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="597">
+      <c r="H30" s="591">
         <v>0</v>
       </c>
-      <c r="I30" s="598">
-        <v>20</v>
-      </c>
-      <c r="J30" s="596" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="558">
+      <c r="I30" s="482">
+        <v>50</v>
+      </c>
+      <c r="J30" s="307">
+        <v>0</v>
+      </c>
+      <c r="K30" s="555">
         <v>64</v>
       </c>
-      <c r="L30" s="599" t="s">
+      <c r="L30" s="592" t="s">
         <v>25</v>
       </c>
       <c r="M30" s="485">
@@ -8871,8 +8800,8 @@
       <c r="O30" s="487">
         <v>0.4</v>
       </c>
-      <c r="P30" s="600" t="s">
-        <v>592</v>
+      <c r="P30" s="593" t="s">
+        <v>590</v>
       </c>
       <c r="Q30" s="336" t="s">
         <v>26</v>
@@ -8880,23 +8809,16 @@
       <c r="R30" s="336" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="601" t="s">
-        <v>593</v>
-      </c>
-      <c r="T30" s="602"/>
-      <c r="U30" s="603" t="s">
-        <v>594</v>
+      <c r="S30" s="594" t="s">
+        <v>591</v>
+      </c>
+      <c r="T30" s="595"/>
+      <c r="U30" s="596" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8909,6 +8831,13 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8956,37 +8885,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
-      <c r="A1" s="619" t="s">
+      <c r="A1" s="612" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="619"/>
-      <c r="C1" s="619"/>
-      <c r="D1" s="619"/>
-      <c r="E1" s="619"/>
-      <c r="F1" s="619"/>
-      <c r="G1" s="619"/>
-      <c r="H1" s="619" t="s">
+      <c r="B1" s="612"/>
+      <c r="C1" s="612"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="619"/>
-      <c r="J1" s="619"/>
-      <c r="K1" s="620" t="s">
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="613" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="621"/>
-      <c r="M1" s="619"/>
-      <c r="N1" s="622"/>
-      <c r="O1" s="622"/>
-      <c r="P1" s="619"/>
-      <c r="Q1" s="621"/>
-      <c r="R1" s="619"/>
-      <c r="S1" s="619"/>
-      <c r="T1" s="623"/>
-      <c r="U1" s="619"/>
-      <c r="V1" s="621"/>
-      <c r="W1" s="624"/>
-      <c r="X1" s="619"/>
-      <c r="Y1" s="625"/>
+      <c r="L1" s="614"/>
+      <c r="M1" s="612"/>
+      <c r="N1" s="615"/>
+      <c r="O1" s="615"/>
+      <c r="P1" s="612"/>
+      <c r="Q1" s="614"/>
+      <c r="R1" s="612"/>
+      <c r="S1" s="612"/>
+      <c r="T1" s="616"/>
+      <c r="U1" s="612"/>
+      <c r="V1" s="614"/>
+      <c r="W1" s="617"/>
+      <c r="X1" s="612"/>
+      <c r="Y1" s="618"/>
       <c r="Z1" s="291"/>
       <c r="AA1" s="291"/>
       <c r="AB1" s="291"/>
@@ -9180,7 +9109,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="313" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F4" s="314" t="s">
         <v>25</v>
@@ -9684,10 +9613,10 @@
       <c r="M10" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="626" t="s">
+      <c r="N10" s="619" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="626"/>
+      <c r="O10" s="619"/>
       <c r="P10" s="377" t="s">
         <v>25</v>
       </c>
@@ -16379,28 +16308,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="620" t="s">
+      <c r="A1" s="613" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="619" t="s">
+      <c r="B1" s="612" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="619"/>
-      <c r="D1" s="629"/>
-      <c r="E1" s="629"/>
-      <c r="F1" s="619"/>
-      <c r="G1" s="629"/>
-      <c r="H1" s="630"/>
-      <c r="I1" s="619"/>
-      <c r="J1" s="619"/>
-      <c r="K1" s="619" t="s">
+      <c r="C1" s="612"/>
+      <c r="D1" s="628"/>
+      <c r="E1" s="628"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="628"/>
+      <c r="H1" s="629"/>
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="612" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="619"/>
-      <c r="M1" s="619"/>
-      <c r="N1" s="631"/>
-      <c r="O1" s="619"/>
-      <c r="P1" s="625" t="s">
+      <c r="L1" s="612"/>
+      <c r="M1" s="612"/>
+      <c r="N1" s="630"/>
+      <c r="O1" s="612"/>
+      <c r="P1" s="618" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="291"/>
@@ -16416,7 +16345,7 @@
       <c r="AA1" s="291"/>
     </row>
     <row r="2" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A2" s="632"/>
+      <c r="A2" s="631"/>
       <c r="B2" s="1" t="s">
         <v>257</v>
       </c>
@@ -16459,7 +16388,7 @@
       <c r="O2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="P2" s="640"/>
+      <c r="P2" s="620"/>
       <c r="Q2" s="291"/>
       <c r="R2" s="291"/>
       <c r="S2" s="291"/>
@@ -16473,7 +16402,7 @@
       <c r="AA2" s="291"/>
     </row>
     <row r="3" spans="1:27" ht="42" customHeight="1">
-      <c r="A3" s="633" t="s">
+      <c r="A3" s="632" t="s">
         <v>264</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -16526,7 +16455,7 @@
       <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:27" ht="42" customHeight="1">
-      <c r="A4" s="634"/>
+      <c r="A4" s="633"/>
       <c r="B4" s="14" t="s">
         <v>271</v>
       </c>
@@ -16577,7 +16506,7 @@
       <c r="S4" s="43"/>
     </row>
     <row r="5" spans="1:27" ht="42" customHeight="1">
-      <c r="A5" s="634"/>
+      <c r="A5" s="633"/>
       <c r="B5" s="14" t="s">
         <v>274</v>
       </c>
@@ -16628,7 +16557,7 @@
       <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:27" ht="42" customHeight="1">
-      <c r="A6" s="635"/>
+      <c r="A6" s="634"/>
       <c r="B6" s="161" t="s">
         <v>277</v>
       </c>
@@ -16687,7 +16616,7 @@
       <c r="AA6" s="292"/>
     </row>
     <row r="7" spans="1:27" ht="42" customHeight="1">
-      <c r="A7" s="634"/>
+      <c r="A7" s="633"/>
       <c r="B7" s="14" t="s">
         <v>280</v>
       </c>
@@ -16738,7 +16667,7 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="1:27" ht="39" customHeight="1">
-      <c r="A8" s="635"/>
+      <c r="A8" s="634"/>
       <c r="B8" s="166" t="s">
         <v>285</v>
       </c>
@@ -16797,7 +16726,7 @@
       <c r="AA8" s="292"/>
     </row>
     <row r="9" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A9" s="634"/>
+      <c r="A9" s="633"/>
       <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
@@ -16848,7 +16777,7 @@
       <c r="S9" s="43"/>
     </row>
     <row r="10" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A10" s="634"/>
+      <c r="A10" s="633"/>
       <c r="B10" s="19" t="s">
         <v>60</v>
       </c>
@@ -16899,7 +16828,7 @@
       <c r="S10" s="43"/>
     </row>
     <row r="11" spans="1:27" ht="42" customHeight="1">
-      <c r="A11" s="634"/>
+      <c r="A11" s="633"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
@@ -16948,7 +16877,7 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="1:27" ht="63.95" customHeight="1">
-      <c r="A12" s="636" t="s">
+      <c r="A12" s="635" t="s">
         <v>298</v>
       </c>
       <c r="B12" s="168" t="s">
@@ -17001,7 +16930,7 @@
       <c r="S12" s="43"/>
     </row>
     <row r="13" spans="1:27" ht="80.099999999999994" customHeight="1">
-      <c r="A13" s="637"/>
+      <c r="A13" s="636"/>
       <c r="B13" s="161" t="s">
         <v>306</v>
       </c>
@@ -17060,7 +16989,7 @@
       <c r="AA13" s="292"/>
     </row>
     <row r="14" spans="1:27" ht="144" customHeight="1">
-      <c r="A14" s="638"/>
+      <c r="A14" s="637"/>
       <c r="B14" s="14" t="s">
         <v>221</v>
       </c>
@@ -17111,7 +17040,7 @@
       <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:27" ht="128.1" customHeight="1">
-      <c r="A15" s="639"/>
+      <c r="A15" s="638"/>
       <c r="B15" s="24" t="s">
         <v>315</v>
       </c>
@@ -17162,7 +17091,7 @@
       <c r="S15" s="43"/>
     </row>
     <row r="16" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A16" s="641" t="s">
+      <c r="A16" s="621" t="s">
         <v>319</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -17213,7 +17142,7 @@
       <c r="S16" s="43"/>
     </row>
     <row r="17" spans="1:27" ht="96" customHeight="1">
-      <c r="A17" s="642"/>
+      <c r="A17" s="622"/>
       <c r="B17" s="14" t="s">
         <v>124</v>
       </c>
@@ -17264,7 +17193,7 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="1:27" ht="144" customHeight="1">
-      <c r="A18" s="641"/>
+      <c r="A18" s="621"/>
       <c r="B18" s="14" t="s">
         <v>133</v>
       </c>
@@ -17315,7 +17244,7 @@
       <c r="S18" s="43"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="627" t="s">
+      <c r="A19" s="623" t="s">
         <v>330</v>
       </c>
       <c r="B19" s="168" t="s">
@@ -17350,7 +17279,7 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:27" ht="56.1" customHeight="1">
-      <c r="A20" s="643"/>
+      <c r="A20" s="624"/>
       <c r="B20" s="161" t="s">
         <v>333</v>
       </c>
@@ -17405,7 +17334,7 @@
       <c r="AA20" s="292"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="628"/>
+      <c r="A21" s="625"/>
       <c r="B21" s="14" t="s">
         <v>336</v>
       </c>
@@ -17444,7 +17373,7 @@
       <c r="S21" s="43"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="641"/>
+      <c r="A22" s="621"/>
       <c r="B22" s="19" t="s">
         <v>46</v>
       </c>
@@ -17479,7 +17408,7 @@
       <c r="S22" s="43"/>
     </row>
     <row r="23" spans="1:27" ht="69.95" customHeight="1">
-      <c r="A23" s="644" t="s">
+      <c r="A23" s="626" t="s">
         <v>337</v>
       </c>
       <c r="B23" s="177" t="s">
@@ -17538,7 +17467,7 @@
       <c r="AA23" s="292"/>
     </row>
     <row r="24" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A24" s="643"/>
+      <c r="A24" s="624"/>
       <c r="B24" s="161" t="s">
         <v>343</v>
       </c>
@@ -17595,7 +17524,7 @@
       <c r="AA24" s="292"/>
     </row>
     <row r="25" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A25" s="643"/>
+      <c r="A25" s="624"/>
       <c r="B25" s="161" t="s">
         <v>346</v>
       </c>
@@ -17652,7 +17581,7 @@
       <c r="AA25" s="292"/>
     </row>
     <row r="26" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A26" s="628"/>
+      <c r="A26" s="625"/>
       <c r="B26" s="14" t="s">
         <v>107</v>
       </c>
@@ -17701,7 +17630,7 @@
       <c r="S26" s="43"/>
     </row>
     <row r="27" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A27" s="643"/>
+      <c r="A27" s="624"/>
       <c r="B27" s="161" t="s">
         <v>351</v>
       </c>
@@ -17758,7 +17687,7 @@
       <c r="AA27" s="292"/>
     </row>
     <row r="28" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A28" s="645"/>
+      <c r="A28" s="627"/>
       <c r="B28" s="183" t="s">
         <v>354</v>
       </c>
@@ -17815,7 +17744,7 @@
       <c r="AA28" s="292"/>
     </row>
     <row r="29" spans="1:27" ht="27.95" customHeight="1">
-      <c r="A29" s="644" t="s">
+      <c r="A29" s="626" t="s">
         <v>357</v>
       </c>
       <c r="B29" s="177" t="s">
@@ -17876,7 +17805,7 @@
       <c r="AA29" s="292"/>
     </row>
     <row r="30" spans="1:27" ht="48" customHeight="1">
-      <c r="A30" s="645"/>
+      <c r="A30" s="627"/>
       <c r="B30" s="183" t="s">
         <v>362</v>
       </c>
@@ -17984,7 +17913,7 @@
       <c r="S31" s="43"/>
     </row>
     <row r="32" spans="1:27" ht="69.95" customHeight="1">
-      <c r="A32" s="627" t="s">
+      <c r="A32" s="623" t="s">
         <v>369</v>
       </c>
       <c r="B32" s="168" t="s">
@@ -18037,7 +17966,7 @@
       <c r="S32" s="43"/>
     </row>
     <row r="33" spans="1:19" ht="56.1" customHeight="1">
-      <c r="A33" s="628"/>
+      <c r="A33" s="625"/>
       <c r="B33" s="14" t="s">
         <v>374</v>
       </c>
@@ -18084,7 +18013,7 @@
       <c r="S33" s="43"/>
     </row>
     <row r="34" spans="1:19" ht="42" customHeight="1">
-      <c r="A34" s="628"/>
+      <c r="A34" s="625"/>
       <c r="B34" s="14" t="s">
         <v>243</v>
       </c>
@@ -18133,7 +18062,7 @@
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="42" customHeight="1">
-      <c r="A35" s="628"/>
+      <c r="A35" s="625"/>
       <c r="B35" s="14" t="s">
         <v>245</v>
       </c>
@@ -18182,7 +18111,7 @@
       <c r="S35" s="43"/>
     </row>
     <row r="36" spans="1:19" ht="111.95" customHeight="1">
-      <c r="A36" s="628"/>
+      <c r="A36" s="625"/>
       <c r="B36" s="14" t="s">
         <v>247</v>
       </c>
@@ -21440,17 +21369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -22184,10 +22113,10 @@
       <c r="F36" s="133"/>
       <c r="G36" s="134"/>
       <c r="H36" s="135"/>
-      <c r="I36" s="646" t="s">
+      <c r="I36" s="639" t="s">
         <v>383</v>
       </c>
-      <c r="J36" s="646"/>
+      <c r="J36" s="639"/>
       <c r="K36" s="133"/>
       <c r="L36" s="134"/>
       <c r="M36" s="135"/>
@@ -22204,8 +22133,8 @@
       <c r="F37" s="139"/>
       <c r="G37" s="143"/>
       <c r="H37" s="144"/>
-      <c r="I37" s="647"/>
-      <c r="J37" s="647"/>
+      <c r="I37" s="640"/>
+      <c r="J37" s="640"/>
       <c r="K37" s="139"/>
       <c r="L37" s="143"/>
       <c r="M37" s="144"/>
@@ -22459,37 +22388,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="619" t="s">
+      <c r="A1" s="612" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="619"/>
-      <c r="C1" s="619"/>
-      <c r="D1" s="619"/>
-      <c r="E1" s="619"/>
-      <c r="F1" s="619"/>
-      <c r="G1" s="619"/>
-      <c r="H1" s="619" t="s">
+      <c r="B1" s="612"/>
+      <c r="C1" s="612"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="619"/>
-      <c r="J1" s="619"/>
-      <c r="K1" s="620" t="s">
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="613" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="648"/>
-      <c r="M1" s="619"/>
-      <c r="N1" s="622"/>
-      <c r="O1" s="622"/>
-      <c r="P1" s="619"/>
-      <c r="Q1" s="648"/>
-      <c r="R1" s="619"/>
-      <c r="S1" s="619"/>
-      <c r="T1" s="623"/>
-      <c r="U1" s="619"/>
-      <c r="V1" s="648"/>
-      <c r="W1" s="624"/>
-      <c r="X1" s="619"/>
-      <c r="Y1" s="625"/>
+      <c r="L1" s="641"/>
+      <c r="M1" s="612"/>
+      <c r="N1" s="615"/>
+      <c r="O1" s="615"/>
+      <c r="P1" s="612"/>
+      <c r="Q1" s="641"/>
+      <c r="R1" s="612"/>
+      <c r="S1" s="612"/>
+      <c r="T1" s="616"/>
+      <c r="U1" s="612"/>
+      <c r="V1" s="641"/>
+      <c r="W1" s="617"/>
+      <c r="X1" s="612"/>
+      <c r="Y1" s="618"/>
     </row>
     <row r="2" spans="1:25" ht="32.1" customHeight="1">
       <c r="A2" s="1" t="s">

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="602">
   <si>
     <t>基本属性</t>
   </si>
@@ -2025,9 +2025,6 @@
     <t>原型图</t>
   </si>
   <si>
-    <t>行政</t>
-  </si>
-  <si>
     <t>生产1张商战牌-原型图-基于图形B获得格子</t>
   </si>
   <si>
@@ -2258,14 +2255,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>财务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谋略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3×2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2275,6 +2264,26 @@
   </si>
   <si>
     <t>购买费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2530,7 +2539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="171">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -4411,21 +4420,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF2B2B2B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF2B2B2B"/>
       </left>
       <right style="thin">
@@ -4718,7 +4712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="644">
+  <cellXfs count="641">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6210,12 +6204,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6231,7 +6219,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6300,28 +6288,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6354,37 +6342,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="155" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="156" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6411,58 +6399,58 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6483,40 +6471,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="135" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6532,27 +6544,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6579,6 +6570,45 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6588,52 +6618,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6643,12 +6634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6929,86 +6914,86 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="599" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="609" t="s">
+      <c r="B1" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="605" t="s">
+      <c r="C1" s="599" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="607" t="s">
+      <c r="D1" s="601" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="607" t="s">
+      <c r="E1" s="601" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="607" t="s">
+      <c r="F1" s="601" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="607" t="s">
+      <c r="G1" s="601" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="609" t="s">
+      <c r="H1" s="597" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="642" t="s">
-        <v>598</v>
-      </c>
-      <c r="J1" s="643" t="s">
-        <v>599</v>
-      </c>
-      <c r="K1" s="607" t="s">
+      <c r="I1" s="604" t="s">
+        <v>595</v>
+      </c>
+      <c r="J1" s="605" t="s">
+        <v>596</v>
+      </c>
+      <c r="K1" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="609" t="s">
+      <c r="L1" s="597" t="s">
         <v>495</v>
       </c>
-      <c r="M1" s="602" t="s">
+      <c r="M1" s="608" t="s">
         <v>496</v>
       </c>
-      <c r="N1" s="603"/>
-      <c r="O1" s="604"/>
-      <c r="P1" s="605" t="s">
+      <c r="N1" s="609"/>
+      <c r="O1" s="610"/>
+      <c r="P1" s="599" t="s">
         <v>497</v>
       </c>
-      <c r="Q1" s="607" t="s">
+      <c r="Q1" s="601" t="s">
         <v>498</v>
       </c>
-      <c r="R1" s="607" t="s">
+      <c r="R1" s="601" t="s">
         <v>499</v>
       </c>
-      <c r="S1" s="607" t="s">
+      <c r="S1" s="601" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="609" t="s">
+      <c r="T1" s="597" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="600" t="s">
+      <c r="U1" s="606" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="27.75" thickBot="1">
-      <c r="A2" s="606"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="608"/>
-      <c r="F2" s="611"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="606"/>
-      <c r="J2" s="608"/>
-      <c r="K2" s="608"/>
-      <c r="L2" s="610"/>
+      <c r="A2" s="600"/>
+      <c r="B2" s="598"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="602"/>
+      <c r="F2" s="603"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="598"/>
+      <c r="I2" s="600"/>
+      <c r="J2" s="602"/>
+      <c r="K2" s="602"/>
+      <c r="L2" s="598"/>
       <c r="M2" s="476" t="s">
         <v>500</v>
       </c>
@@ -7018,12 +7003,12 @@
       <c r="O2" s="478" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="606"/>
-      <c r="Q2" s="608"/>
-      <c r="R2" s="608"/>
-      <c r="S2" s="608"/>
-      <c r="T2" s="610"/>
-      <c r="U2" s="601"/>
+      <c r="P2" s="600"/>
+      <c r="Q2" s="602"/>
+      <c r="R2" s="602"/>
+      <c r="S2" s="602"/>
+      <c r="T2" s="598"/>
+      <c r="U2" s="607"/>
     </row>
     <row r="3" spans="1:21" ht="78.75">
       <c r="A3" s="479" t="s">
@@ -7074,11 +7059,11 @@
       <c r="P3" s="488" t="s">
         <v>503</v>
       </c>
-      <c r="Q3" s="306" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="306" t="s">
-        <v>30</v>
+      <c r="Q3" s="596" t="s">
+        <v>598</v>
+      </c>
+      <c r="R3" s="596" t="s">
+        <v>597</v>
       </c>
       <c r="S3" s="489" t="s">
         <v>504</v>
@@ -7139,11 +7124,11 @@
       <c r="P4" s="488" t="s">
         <v>508</v>
       </c>
-      <c r="Q4" s="306" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="306" t="s">
-        <v>85</v>
+      <c r="Q4" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R4" s="596" t="s">
+        <v>597</v>
       </c>
       <c r="S4" s="489" t="s">
         <v>509</v>
@@ -7202,11 +7187,11 @@
       <c r="P5" s="488" t="s">
         <v>511</v>
       </c>
-      <c r="Q5" s="306" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="306" t="s">
-        <v>93</v>
+      <c r="Q5" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R5" s="596" t="s">
+        <v>597</v>
       </c>
       <c r="S5" s="489" t="s">
         <v>512</v>
@@ -7265,11 +7250,11 @@
       <c r="P6" s="496" t="s">
         <v>514</v>
       </c>
-      <c r="Q6" s="312" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="312" t="s">
-        <v>146</v>
+      <c r="Q6" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R6" s="596" t="s">
+        <v>597</v>
       </c>
       <c r="S6" s="489" t="s">
         <v>515</v>
@@ -7328,14 +7313,14 @@
       <c r="P7" s="496" t="s">
         <v>517</v>
       </c>
-      <c r="Q7" s="312" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="312" t="s">
+      <c r="Q7" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R7" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S7" s="489" t="s">
         <v>518</v>
-      </c>
-      <c r="S7" s="489" t="s">
-        <v>519</v>
       </c>
       <c r="T7" s="490" t="s">
         <v>505</v>
@@ -7347,7 +7332,7 @@
         <v>274</v>
       </c>
       <c r="B8" s="493" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C8" s="305" t="s">
         <v>502</v>
@@ -7389,16 +7374,16 @@
         <v>0.2</v>
       </c>
       <c r="P8" s="496" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q8" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R8" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S8" s="489" t="s">
         <v>521</v>
-      </c>
-      <c r="Q8" s="312" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="312" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="489" t="s">
-        <v>522</v>
       </c>
       <c r="T8" s="490" t="s">
         <v>505</v>
@@ -7410,7 +7395,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="493" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C9" s="305" t="s">
         <v>502</v>
@@ -7452,16 +7437,16 @@
         <v>0.2</v>
       </c>
       <c r="P9" s="496" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q9" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R9" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S9" s="489" t="s">
         <v>524</v>
-      </c>
-      <c r="Q9" s="497" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="498" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="489" t="s">
-        <v>525</v>
       </c>
       <c r="T9" s="490" t="s">
         <v>505</v>
@@ -7473,7 +7458,7 @@
         <v>271</v>
       </c>
       <c r="B10" s="493" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" s="305" t="s">
         <v>502</v>
@@ -7515,16 +7500,16 @@
         <v>0.2</v>
       </c>
       <c r="P10" s="496" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q10" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R10" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S10" s="489" t="s">
         <v>527</v>
-      </c>
-      <c r="Q10" s="497" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="498" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="489" t="s">
-        <v>528</v>
       </c>
       <c r="T10" s="490" t="s">
         <v>505</v>
@@ -7536,7 +7521,7 @@
         <v>271</v>
       </c>
       <c r="B11" s="493" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C11" s="305" t="s">
         <v>502</v>
@@ -7578,16 +7563,16 @@
         <v>0.2</v>
       </c>
       <c r="P11" s="496" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q11" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R11" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S11" s="489" t="s">
         <v>530</v>
-      </c>
-      <c r="Q11" s="497" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="498" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="489" t="s">
-        <v>531</v>
       </c>
       <c r="T11" s="490" t="s">
         <v>505</v>
@@ -7595,13 +7580,13 @@
       <c r="U11" s="491"/>
     </row>
     <row r="12" spans="1:21" ht="79.5" thickBot="1">
-      <c r="A12" s="499" t="s">
+      <c r="A12" s="497" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="500" t="s">
-        <v>532</v>
-      </c>
-      <c r="C12" s="501" t="s">
+      <c r="B12" s="498" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="499" t="s">
         <v>502</v>
       </c>
       <c r="D12" s="340" t="s">
@@ -7610,13 +7595,13 @@
       <c r="E12" s="340">
         <v>2</v>
       </c>
-      <c r="F12" s="502">
+      <c r="F12" s="500">
         <v>1</v>
       </c>
-      <c r="G12" s="502" t="s">
+      <c r="G12" s="500" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="503">
+      <c r="H12" s="501">
         <v>0</v>
       </c>
       <c r="I12" s="482">
@@ -7625,43 +7610,43 @@
       <c r="J12" s="307">
         <v>200</v>
       </c>
-      <c r="K12" s="504">
+      <c r="K12" s="502">
         <v>80</v>
       </c>
-      <c r="L12" s="505">
+      <c r="L12" s="503">
         <v>-30</v>
       </c>
-      <c r="M12" s="506">
+      <c r="M12" s="504">
         <v>8</v>
       </c>
-      <c r="N12" s="507">
+      <c r="N12" s="505">
         <v>0</v>
       </c>
-      <c r="O12" s="508">
+      <c r="O12" s="506">
         <v>0.2</v>
       </c>
-      <c r="P12" s="509" t="s">
+      <c r="P12" s="507" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q12" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R12" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S12" s="508" t="s">
         <v>533</v>
       </c>
-      <c r="Q12" s="340" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="340" t="s">
-        <v>195</v>
-      </c>
-      <c r="S12" s="510" t="s">
-        <v>534</v>
-      </c>
-      <c r="T12" s="511" t="s">
+      <c r="T12" s="509" t="s">
         <v>505</v>
       </c>
       <c r="U12" s="491"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="512" t="s">
+      <c r="A13" s="510" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="513" t="s">
+      <c r="B13" s="511" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="327" t="s">
@@ -7679,7 +7664,7 @@
       <c r="G13" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="514">
+      <c r="H13" s="512">
         <v>2</v>
       </c>
       <c r="I13" s="482">
@@ -7694,37 +7679,37 @@
       <c r="L13" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="515" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="516" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="517" t="s">
+      <c r="M13" s="513" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="514" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="515" t="s">
         <v>25</v>
       </c>
       <c r="P13" s="488" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="306" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="306" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="518" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="519" t="s">
+      <c r="Q13" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R13" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S13" s="516" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="517" t="s">
         <v>25</v>
       </c>
       <c r="U13" s="491"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="520" t="s">
+      <c r="A14" s="518" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="521" t="s">
+      <c r="B14" s="519" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="317" t="s">
@@ -7742,7 +7727,7 @@
       <c r="G14" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="522">
+      <c r="H14" s="520">
         <v>2</v>
       </c>
       <c r="I14" s="482">
@@ -7751,7 +7736,7 @@
       <c r="J14" s="307">
         <v>200</v>
       </c>
-      <c r="K14" s="523" t="s">
+      <c r="K14" s="521" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="484" t="s">
@@ -7763,49 +7748,49 @@
       <c r="N14" s="313" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="524" t="s">
+      <c r="O14" s="522" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="496" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="312" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="312" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="525" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" s="519" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" s="526"/>
+      <c r="Q14" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R14" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S14" s="523" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="517" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="524"/>
     </row>
     <row r="15" spans="1:21" ht="72">
-      <c r="A15" s="527" t="s">
+      <c r="A15" s="525" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="528" t="s">
+      <c r="B15" s="526" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="527" t="s">
         <v>535</v>
       </c>
-      <c r="C15" s="529" t="s">
-        <v>536</v>
-      </c>
-      <c r="D15" s="530" t="s">
+      <c r="D15" s="528" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="530">
+      <c r="E15" s="528">
         <v>2</v>
       </c>
-      <c r="F15" s="531">
+      <c r="F15" s="529">
         <v>2</v>
       </c>
-      <c r="G15" s="531" t="s">
+      <c r="G15" s="529" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="532">
+      <c r="H15" s="530">
         <v>2</v>
       </c>
       <c r="I15" s="482">
@@ -7814,10 +7799,10 @@
       <c r="J15" s="307">
         <v>200</v>
       </c>
-      <c r="K15" s="533">
+      <c r="K15" s="531">
         <v>16</v>
       </c>
-      <c r="L15" s="534" t="s">
+      <c r="L15" s="532" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="485">
@@ -7829,23 +7814,23 @@
       <c r="O15" s="487">
         <v>0.2</v>
       </c>
-      <c r="P15" s="535" t="s">
+      <c r="P15" s="533" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q15" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R15" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S15" s="534" t="s">
         <v>537</v>
       </c>
-      <c r="Q15" s="530" t="s">
-        <v>126</v>
-      </c>
-      <c r="R15" s="530" t="s">
-        <v>518</v>
-      </c>
-      <c r="S15" s="536" t="s">
+      <c r="T15" s="535" t="s">
         <v>538</v>
       </c>
-      <c r="T15" s="537" t="s">
+      <c r="U15" s="524" t="s">
         <v>539</v>
-      </c>
-      <c r="U15" s="526" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="157.5">
@@ -7853,10 +7838,10 @@
         <v>124</v>
       </c>
       <c r="B16" s="480" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C16" s="334" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D16" s="306" t="s">
         <v>68</v>
@@ -7885,43 +7870,43 @@
       <c r="L16" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="515" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="516" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="517" t="s">
+      <c r="M16" s="513" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="514" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="515" t="s">
         <v>25</v>
       </c>
       <c r="P16" s="488" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="306" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="306" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="538" t="s">
+      <c r="Q16" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R16" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S16" s="536" t="s">
+        <v>541</v>
+      </c>
+      <c r="T16" s="517" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="524" t="s">
         <v>542</v>
       </c>
-      <c r="T16" s="519" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="526" t="s">
+    </row>
+    <row r="17" spans="1:21" ht="45.75" thickBot="1">
+      <c r="A17" s="497" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="498" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="45.75" thickBot="1">
-      <c r="A17" s="499" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="500" t="s">
+      <c r="C17" s="499" t="s">
         <v>544</v>
-      </c>
-      <c r="C17" s="501" t="s">
-        <v>545</v>
       </c>
       <c r="D17" s="340" t="s">
         <v>68</v>
@@ -7929,13 +7914,13 @@
       <c r="E17" s="340">
         <v>0</v>
       </c>
-      <c r="F17" s="502">
+      <c r="F17" s="500">
         <v>1</v>
       </c>
-      <c r="G17" s="502" t="s">
+      <c r="G17" s="500" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="503">
+      <c r="H17" s="501">
         <v>1</v>
       </c>
       <c r="I17" s="482">
@@ -7944,63 +7929,63 @@
       <c r="J17" s="307">
         <v>200</v>
       </c>
-      <c r="K17" s="539" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="506" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="540" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="541" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="509" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="340" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="340" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="542" t="s">
+      <c r="K17" s="537" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="503" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="504" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="538" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="539" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="507" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R17" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S17" s="540" t="s">
+        <v>545</v>
+      </c>
+      <c r="T17" s="541" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="542" t="s">
         <v>546</v>
       </c>
-      <c r="T17" s="543" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="544" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="18" spans="1:21" ht="78.75">
-      <c r="A18" s="545" t="s">
+      <c r="A18" s="543" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="546" t="s">
+      <c r="B18" s="544" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="547" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" s="548" t="s">
+      <c r="C18" s="545" t="s">
+        <v>535</v>
+      </c>
+      <c r="D18" s="546" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="548">
+      <c r="E18" s="546">
         <v>2</v>
       </c>
-      <c r="F18" s="516">
+      <c r="F18" s="514">
         <v>1</v>
       </c>
-      <c r="G18" s="516" t="s">
+      <c r="G18" s="514" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="517">
+      <c r="H18" s="515">
         <v>2</v>
       </c>
       <c r="I18" s="482">
@@ -8009,63 +7994,63 @@
       <c r="J18" s="307">
         <v>200</v>
       </c>
-      <c r="K18" s="549">
+      <c r="K18" s="547">
         <v>48</v>
       </c>
-      <c r="L18" s="534" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="515">
+      <c r="L18" s="532" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="513">
         <v>8</v>
       </c>
-      <c r="N18" s="550">
+      <c r="N18" s="548">
         <v>0.2</v>
       </c>
-      <c r="O18" s="551">
+      <c r="O18" s="549">
         <v>0.4</v>
       </c>
-      <c r="P18" s="552" t="s">
+      <c r="P18" s="550" t="s">
         <v>179</v>
       </c>
-      <c r="Q18" s="548" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="548" t="s">
-        <v>146</v>
-      </c>
-      <c r="S18" s="553" t="s">
+      <c r="Q18" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R18" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S18" s="551" t="s">
+        <v>547</v>
+      </c>
+      <c r="T18" s="535" t="s">
+        <v>505</v>
+      </c>
+      <c r="U18" s="524" t="s">
         <v>548</v>
       </c>
-      <c r="T18" s="537" t="s">
-        <v>505</v>
-      </c>
-      <c r="U18" s="526" t="s">
+    </row>
+    <row r="19" spans="1:21" ht="84">
+      <c r="A19" s="543" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="544" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="84">
-      <c r="A19" s="545" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="546" t="s">
-        <v>550</v>
-      </c>
-      <c r="C19" s="547" t="s">
+      <c r="C19" s="545" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="548" t="s">
+      <c r="D19" s="546" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="548">
+      <c r="E19" s="546">
         <v>2</v>
       </c>
-      <c r="F19" s="516">
+      <c r="F19" s="514">
         <v>1</v>
       </c>
-      <c r="G19" s="516" t="s">
+      <c r="G19" s="514" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="517">
+      <c r="H19" s="515">
         <v>0</v>
       </c>
       <c r="I19" s="482">
@@ -8074,49 +8059,49 @@
       <c r="J19" s="307">
         <v>200</v>
       </c>
-      <c r="K19" s="549">
+      <c r="K19" s="547">
         <v>80</v>
       </c>
       <c r="L19" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="515">
+      <c r="M19" s="513">
         <v>8</v>
       </c>
-      <c r="N19" s="550">
+      <c r="N19" s="548">
         <v>0.2</v>
       </c>
-      <c r="O19" s="551">
+      <c r="O19" s="549">
         <v>0.4</v>
       </c>
-      <c r="P19" s="552" t="s">
+      <c r="P19" s="550" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q19" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R19" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S19" s="551" t="s">
         <v>551</v>
-      </c>
-      <c r="Q19" s="548" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="548" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="553" t="s">
-        <v>552</v>
       </c>
       <c r="T19" s="490" t="s">
         <v>505</v>
       </c>
-      <c r="U19" s="526" t="s">
+      <c r="U19" s="524" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="79.5" thickBot="1">
+      <c r="A20" s="497" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="79.5" thickBot="1">
-      <c r="A20" s="499" t="s">
-        <v>554</v>
-      </c>
-      <c r="B20" s="500" t="s">
-        <v>554</v>
-      </c>
-      <c r="C20" s="501" t="s">
-        <v>536</v>
+      <c r="B20" s="498" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" s="499" t="s">
+        <v>535</v>
       </c>
       <c r="D20" s="340" t="s">
         <v>68</v>
@@ -8124,13 +8109,13 @@
       <c r="E20" s="340">
         <v>2</v>
       </c>
-      <c r="F20" s="502">
+      <c r="F20" s="500">
         <v>2</v>
       </c>
-      <c r="G20" s="597" t="s">
-        <v>597</v>
-      </c>
-      <c r="H20" s="503">
+      <c r="G20" s="595" t="s">
+        <v>594</v>
+      </c>
+      <c r="H20" s="501">
         <v>2</v>
       </c>
       <c r="I20" s="482">
@@ -8139,38 +8124,38 @@
       <c r="J20" s="307">
         <v>200</v>
       </c>
-      <c r="K20" s="539">
+      <c r="K20" s="537">
         <v>32</v>
       </c>
-      <c r="L20" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="506">
+      <c r="L20" s="503" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="504">
         <v>8</v>
       </c>
-      <c r="N20" s="507">
+      <c r="N20" s="505">
         <v>0.2</v>
       </c>
-      <c r="O20" s="508">
+      <c r="O20" s="506">
         <v>0.4</v>
       </c>
-      <c r="P20" s="509" t="s">
+      <c r="P20" s="507" t="s">
         <v>99</v>
       </c>
-      <c r="Q20" s="340" t="s">
-        <v>57</v>
-      </c>
-      <c r="R20" s="340" t="s">
-        <v>195</v>
-      </c>
-      <c r="S20" s="510" t="s">
+      <c r="Q20" s="596" t="s">
+        <v>600</v>
+      </c>
+      <c r="R20" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S20" s="508" t="s">
+        <v>554</v>
+      </c>
+      <c r="T20" s="509" t="s">
+        <v>505</v>
+      </c>
+      <c r="U20" s="542" t="s">
         <v>555</v>
-      </c>
-      <c r="T20" s="511" t="s">
-        <v>505</v>
-      </c>
-      <c r="U20" s="544" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="78.75">
@@ -8178,10 +8163,10 @@
         <v>107</v>
       </c>
       <c r="B21" s="480" t="s">
+        <v>556</v>
+      </c>
+      <c r="C21" s="334" t="s">
         <v>557</v>
-      </c>
-      <c r="C21" s="334" t="s">
-        <v>558</v>
       </c>
       <c r="D21" s="306" t="s">
         <v>68</v>
@@ -8204,47 +8189,47 @@
       <c r="J21" s="307">
         <v>200</v>
       </c>
-      <c r="K21" s="549">
+      <c r="K21" s="547">
         <v>32</v>
       </c>
       <c r="L21" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="515">
+      <c r="M21" s="513">
         <v>8</v>
       </c>
-      <c r="N21" s="550">
+      <c r="N21" s="548">
         <v>0.2</v>
       </c>
-      <c r="O21" s="551">
+      <c r="O21" s="549">
         <v>0.4</v>
       </c>
       <c r="P21" s="488" t="s">
         <v>108</v>
       </c>
-      <c r="Q21" s="306" t="s">
-        <v>85</v>
-      </c>
-      <c r="R21" s="306" t="s">
-        <v>62</v>
+      <c r="Q21" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R21" s="596" t="s">
+        <v>597</v>
       </c>
       <c r="S21" s="489" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T21" s="490" t="s">
         <v>505</v>
       </c>
-      <c r="U21" s="526" t="s">
-        <v>560</v>
+      <c r="U21" s="524" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="202.5">
       <c r="A22" s="479"/>
       <c r="B22" s="480" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="334" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D22" s="306" t="s">
         <v>68</v>
@@ -8256,7 +8241,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="307" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H22" s="481">
         <v>0</v>
@@ -8267,49 +8252,49 @@
       <c r="J22" s="307">
         <v>200</v>
       </c>
-      <c r="K22" s="549">
+      <c r="K22" s="547">
         <v>32</v>
       </c>
       <c r="L22" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="515">
+      <c r="M22" s="513">
         <v>8</v>
       </c>
-      <c r="N22" s="550">
+      <c r="N22" s="548">
         <v>0.2</v>
       </c>
-      <c r="O22" s="551">
+      <c r="O22" s="549">
         <v>0.4</v>
       </c>
       <c r="P22" s="488" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q22" s="596" t="s">
+        <v>599</v>
+      </c>
+      <c r="R22" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S22" s="489" t="s">
         <v>562</v>
-      </c>
-      <c r="Q22" s="598" t="s">
-        <v>595</v>
-      </c>
-      <c r="R22" s="306" t="s">
-        <v>518</v>
-      </c>
-      <c r="S22" s="489" t="s">
-        <v>563</v>
       </c>
       <c r="T22" s="490" t="s">
         <v>505</v>
       </c>
-      <c r="U22" s="526" t="s">
+      <c r="U22" s="524" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="79.5" thickBot="1">
+      <c r="A23" s="497" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="498" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="79.5" thickBot="1">
-      <c r="A23" s="499" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="500" t="s">
-        <v>565</v>
-      </c>
-      <c r="C23" s="501" t="s">
-        <v>545</v>
+      <c r="C23" s="499" t="s">
+        <v>544</v>
       </c>
       <c r="D23" s="340" t="s">
         <v>68</v>
@@ -8317,13 +8302,13 @@
       <c r="E23" s="340">
         <v>1</v>
       </c>
-      <c r="F23" s="502">
+      <c r="F23" s="500">
         <v>1</v>
       </c>
-      <c r="G23" s="502" t="s">
+      <c r="G23" s="500" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="503">
+      <c r="H23" s="501">
         <v>2</v>
       </c>
       <c r="I23" s="482">
@@ -8332,38 +8317,38 @@
       <c r="J23" s="307">
         <v>200</v>
       </c>
-      <c r="K23" s="554">
+      <c r="K23" s="552">
         <v>32</v>
       </c>
-      <c r="L23" s="505" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="506">
+      <c r="L23" s="503" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="504">
         <v>10</v>
       </c>
-      <c r="N23" s="507">
+      <c r="N23" s="505">
         <v>0.2</v>
       </c>
-      <c r="O23" s="508">
+      <c r="O23" s="506">
         <v>0.4</v>
       </c>
-      <c r="P23" s="509" t="s">
+      <c r="P23" s="507" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q23" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R23" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S23" s="508" t="s">
         <v>566</v>
       </c>
-      <c r="Q23" s="340" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" s="340" t="s">
-        <v>85</v>
-      </c>
-      <c r="S23" s="510" t="s">
+      <c r="T23" s="509" t="s">
+        <v>505</v>
+      </c>
+      <c r="U23" s="524" t="s">
         <v>567</v>
-      </c>
-      <c r="T23" s="511" t="s">
-        <v>505</v>
-      </c>
-      <c r="U23" s="526" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="78.75">
@@ -8374,7 +8359,7 @@
         <v>115</v>
       </c>
       <c r="C24" s="334" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D24" s="306" t="s">
         <v>68</v>
@@ -8397,63 +8382,63 @@
       <c r="J24" s="307">
         <v>200</v>
       </c>
-      <c r="K24" s="549">
+      <c r="K24" s="547">
         <v>32</v>
       </c>
       <c r="L24" s="484" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="515">
+      <c r="M24" s="513">
         <v>10</v>
       </c>
-      <c r="N24" s="550">
+      <c r="N24" s="548">
         <v>0.2</v>
       </c>
-      <c r="O24" s="551">
+      <c r="O24" s="549">
         <v>0.4</v>
       </c>
       <c r="P24" s="488" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q24" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R24" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S24" s="489" t="s">
         <v>569</v>
-      </c>
-      <c r="Q24" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="R24" s="306" t="s">
-        <v>93</v>
-      </c>
-      <c r="S24" s="489" t="s">
-        <v>570</v>
       </c>
       <c r="T24" s="490" t="s">
         <v>505</v>
       </c>
-      <c r="U24" s="526" t="s">
+      <c r="U24" s="524" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="78.75">
+      <c r="A25" s="525" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="526" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="78.75">
-      <c r="A25" s="527" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="528" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="529" t="s">
-        <v>536</v>
-      </c>
-      <c r="D25" s="530" t="s">
+      <c r="C25" s="527" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="528" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="530">
+      <c r="E25" s="528">
         <v>1</v>
       </c>
-      <c r="F25" s="531">
+      <c r="F25" s="529">
         <v>2</v>
       </c>
-      <c r="G25" s="531" t="s">
+      <c r="G25" s="529" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="532">
+      <c r="H25" s="530">
         <v>0</v>
       </c>
       <c r="I25" s="482">
@@ -8462,10 +8447,10 @@
       <c r="J25" s="307">
         <v>200</v>
       </c>
-      <c r="K25" s="555">
+      <c r="K25" s="553">
         <v>32</v>
       </c>
-      <c r="L25" s="534" t="s">
+      <c r="L25" s="532" t="s">
         <v>25</v>
       </c>
       <c r="M25" s="485">
@@ -8477,48 +8462,48 @@
       <c r="O25" s="487">
         <v>0.4</v>
       </c>
-      <c r="P25" s="535" t="s">
+      <c r="P25" s="533" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q25" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R25" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S25" s="534" t="s">
         <v>573</v>
       </c>
-      <c r="Q25" s="530" t="s">
-        <v>146</v>
-      </c>
-      <c r="R25" s="530" t="s">
-        <v>62</v>
-      </c>
-      <c r="S25" s="536" t="s">
+      <c r="T25" s="535" t="s">
+        <v>505</v>
+      </c>
+      <c r="U25" s="524" t="s">
         <v>574</v>
       </c>
-      <c r="T25" s="537" t="s">
-        <v>505</v>
-      </c>
-      <c r="U25" s="526" t="s">
+    </row>
+    <row r="26" spans="1:21" ht="78.75">
+      <c r="A26" s="525" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="526" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="78.75">
-      <c r="A26" s="527" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="528" t="s">
-        <v>576</v>
-      </c>
-      <c r="C26" s="529" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" s="530" t="s">
+      <c r="C26" s="527" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" s="528" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="530">
+      <c r="E26" s="528">
         <v>1</v>
       </c>
-      <c r="F26" s="531">
+      <c r="F26" s="529">
         <v>2</v>
       </c>
-      <c r="G26" s="531" t="s">
+      <c r="G26" s="529" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="532">
+      <c r="H26" s="530">
         <v>0</v>
       </c>
       <c r="I26" s="482">
@@ -8527,10 +8512,10 @@
       <c r="J26" s="307">
         <v>200</v>
       </c>
-      <c r="K26" s="555">
+      <c r="K26" s="553">
         <v>32</v>
       </c>
-      <c r="L26" s="534" t="s">
+      <c r="L26" s="532" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="485">
@@ -8542,34 +8527,34 @@
       <c r="O26" s="487">
         <v>0.4</v>
       </c>
-      <c r="P26" s="535" t="s">
+      <c r="P26" s="533" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q26" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R26" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S26" s="534" t="s">
         <v>577</v>
       </c>
-      <c r="Q26" s="530" t="s">
-        <v>195</v>
-      </c>
-      <c r="R26" s="530" t="s">
-        <v>126</v>
-      </c>
-      <c r="S26" s="536" t="s">
+      <c r="T26" s="535" t="s">
+        <v>505</v>
+      </c>
+      <c r="U26" s="524" t="s">
         <v>578</v>
       </c>
-      <c r="T26" s="537" t="s">
-        <v>505</v>
-      </c>
-      <c r="U26" s="526" t="s">
-        <v>579</v>
-      </c>
     </row>
     <row r="27" spans="1:21" ht="79.5" thickBot="1">
-      <c r="A27" s="512" t="s">
+      <c r="A27" s="510" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="513" t="s">
+      <c r="B27" s="511" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="327" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D27" s="328" t="s">
         <v>68</v>
@@ -8583,7 +8568,7 @@
       <c r="G27" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="514">
+      <c r="H27" s="512">
         <v>0</v>
       </c>
       <c r="I27" s="482">
@@ -8592,61 +8577,61 @@
       <c r="J27" s="307">
         <v>200</v>
       </c>
-      <c r="K27" s="556">
+      <c r="K27" s="554">
         <v>80</v>
       </c>
-      <c r="L27" s="557" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="558">
+      <c r="L27" s="555" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="556">
         <v>10</v>
       </c>
-      <c r="N27" s="559">
+      <c r="N27" s="557">
         <v>0.2</v>
       </c>
-      <c r="O27" s="560">
+      <c r="O27" s="558">
         <v>0.4</v>
       </c>
-      <c r="P27" s="561" t="s">
+      <c r="P27" s="559" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q27" s="596" t="s">
+        <v>601</v>
+      </c>
+      <c r="R27" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S27" s="560" t="s">
         <v>580</v>
       </c>
-      <c r="Q27" s="599" t="s">
-        <v>596</v>
-      </c>
-      <c r="R27" s="328" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="562" t="s">
+      <c r="T27" s="561" t="s">
+        <v>505</v>
+      </c>
+      <c r="U27" s="524" t="s">
         <v>581</v>
       </c>
-      <c r="T27" s="563" t="s">
-        <v>505</v>
-      </c>
-      <c r="U27" s="526" t="s">
+    </row>
+    <row r="28" spans="1:21" ht="84">
+      <c r="A28" s="562"/>
+      <c r="B28" s="563" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="84">
-      <c r="A28" s="564"/>
-      <c r="B28" s="565" t="s">
-        <v>583</v>
-      </c>
-      <c r="C28" s="566" t="s">
+      <c r="C28" s="564" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="567" t="s">
+      <c r="D28" s="565" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="567">
+      <c r="E28" s="565">
         <v>2</v>
       </c>
-      <c r="F28" s="568">
+      <c r="F28" s="566">
         <v>3</v>
       </c>
-      <c r="G28" s="568" t="s">
+      <c r="G28" s="566" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="569">
+      <c r="H28" s="567">
         <v>0</v>
       </c>
       <c r="I28" s="482">
@@ -8655,48 +8640,48 @@
       <c r="J28" s="307">
         <v>200</v>
       </c>
-      <c r="K28" s="570">
+      <c r="K28" s="568">
         <v>80</v>
       </c>
-      <c r="L28" s="571" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="572">
+      <c r="L28" s="569" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="570">
         <v>10</v>
       </c>
-      <c r="N28" s="573">
+      <c r="N28" s="571">
         <v>0.2</v>
       </c>
-      <c r="O28" s="574">
+      <c r="O28" s="572">
         <v>0.4</v>
       </c>
-      <c r="P28" s="575" t="s">
+      <c r="P28" s="573" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q28" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R28" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S28" s="574" t="s">
         <v>584</v>
       </c>
-      <c r="Q28" s="567" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="567" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" s="576" t="s">
+      <c r="T28" s="575" t="s">
+        <v>505</v>
+      </c>
+      <c r="U28" s="576" t="s">
         <v>585</v>
       </c>
-      <c r="T28" s="577" t="s">
-        <v>505</v>
-      </c>
-      <c r="U28" s="578" t="s">
-        <v>586</v>
-      </c>
     </row>
     <row r="29" spans="1:21" ht="78.75">
-      <c r="A29" s="579" t="s">
+      <c r="A29" s="577" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="580" t="s">
+      <c r="B29" s="578" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="581" t="s">
+      <c r="C29" s="579" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="332" t="s">
@@ -8711,7 +8696,7 @@
       <c r="G29" s="313" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="524">
+      <c r="H29" s="522">
         <v>0</v>
       </c>
       <c r="I29" s="482">
@@ -8720,10 +8705,10 @@
       <c r="J29" s="307">
         <v>200</v>
       </c>
-      <c r="K29" s="555">
+      <c r="K29" s="553">
         <v>56</v>
       </c>
-      <c r="L29" s="582" t="s">
+      <c r="L29" s="580" t="s">
         <v>25</v>
       </c>
       <c r="M29" s="485">
@@ -8735,34 +8720,34 @@
       <c r="O29" s="487">
         <v>0.4</v>
       </c>
-      <c r="P29" s="583" t="s">
+      <c r="P29" s="581" t="s">
         <v>89</v>
       </c>
-      <c r="Q29" s="332" t="s">
-        <v>57</v>
-      </c>
-      <c r="R29" s="332" t="s">
-        <v>195</v>
-      </c>
-      <c r="S29" s="584" t="s">
+      <c r="Q29" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R29" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S29" s="582" t="s">
+        <v>586</v>
+      </c>
+      <c r="T29" s="583" t="s">
+        <v>505</v>
+      </c>
+      <c r="U29" s="584" t="s">
         <v>587</v>
       </c>
-      <c r="T29" s="585" t="s">
-        <v>505</v>
-      </c>
-      <c r="U29" s="586" t="s">
+    </row>
+    <row r="30" spans="1:21" ht="101.25">
+      <c r="A30" s="585" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="586" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="101.25">
-      <c r="A30" s="587" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="588" t="s">
-        <v>589</v>
-      </c>
-      <c r="C30" s="589" t="s">
-        <v>545</v>
+      <c r="C30" s="587" t="s">
+        <v>544</v>
       </c>
       <c r="D30" s="336" t="s">
         <v>68</v>
@@ -8770,13 +8755,13 @@
       <c r="E30" s="336">
         <v>2</v>
       </c>
-      <c r="F30" s="590">
+      <c r="F30" s="588">
         <v>2</v>
       </c>
-      <c r="G30" s="590" t="s">
+      <c r="G30" s="588" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="591">
+      <c r="H30" s="589">
         <v>0</v>
       </c>
       <c r="I30" s="482">
@@ -8785,10 +8770,10 @@
       <c r="J30" s="307">
         <v>0</v>
       </c>
-      <c r="K30" s="555">
+      <c r="K30" s="553">
         <v>64</v>
       </c>
-      <c r="L30" s="592" t="s">
+      <c r="L30" s="590" t="s">
         <v>25</v>
       </c>
       <c r="M30" s="485">
@@ -8800,25 +8785,32 @@
       <c r="O30" s="487">
         <v>0.4</v>
       </c>
-      <c r="P30" s="593" t="s">
+      <c r="P30" s="591" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q30" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="R30" s="596" t="s">
+        <v>597</v>
+      </c>
+      <c r="S30" s="592" t="s">
         <v>590</v>
       </c>
-      <c r="Q30" s="336" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="336" t="s">
-        <v>34</v>
-      </c>
-      <c r="S30" s="594" t="s">
+      <c r="T30" s="593"/>
+      <c r="U30" s="594" t="s">
         <v>591</v>
-      </c>
-      <c r="T30" s="595"/>
-      <c r="U30" s="596" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8831,13 +8823,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8885,37 +8870,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
-      <c r="A1" s="612" t="s">
+      <c r="A1" s="611" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="612"/>
-      <c r="C1" s="612"/>
-      <c r="D1" s="612"/>
-      <c r="E1" s="612"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="612"/>
-      <c r="H1" s="612" t="s">
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="613" t="s">
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
+      <c r="K1" s="612" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="614"/>
-      <c r="M1" s="612"/>
-      <c r="N1" s="615"/>
-      <c r="O1" s="615"/>
-      <c r="P1" s="612"/>
-      <c r="Q1" s="614"/>
-      <c r="R1" s="612"/>
-      <c r="S1" s="612"/>
-      <c r="T1" s="616"/>
-      <c r="U1" s="612"/>
-      <c r="V1" s="614"/>
-      <c r="W1" s="617"/>
-      <c r="X1" s="612"/>
-      <c r="Y1" s="618"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="611"/>
+      <c r="N1" s="614"/>
+      <c r="O1" s="614"/>
+      <c r="P1" s="611"/>
+      <c r="Q1" s="613"/>
+      <c r="R1" s="611"/>
+      <c r="S1" s="611"/>
+      <c r="T1" s="615"/>
+      <c r="U1" s="611"/>
+      <c r="V1" s="613"/>
+      <c r="W1" s="616"/>
+      <c r="X1" s="611"/>
+      <c r="Y1" s="617"/>
       <c r="Z1" s="291"/>
       <c r="AA1" s="291"/>
       <c r="AB1" s="291"/>
@@ -9109,7 +9094,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="313" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F4" s="314" t="s">
         <v>25</v>
@@ -9613,10 +9598,10 @@
       <c r="M10" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="619" t="s">
+      <c r="N10" s="618" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="619"/>
+      <c r="O10" s="618"/>
       <c r="P10" s="377" t="s">
         <v>25</v>
       </c>
@@ -16308,28 +16293,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="613" t="s">
+      <c r="A1" s="612" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="612" t="s">
+      <c r="B1" s="611" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="612"/>
-      <c r="D1" s="628"/>
-      <c r="E1" s="628"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="628"/>
-      <c r="H1" s="629"/>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="612" t="s">
+      <c r="C1" s="611"/>
+      <c r="D1" s="621"/>
+      <c r="E1" s="621"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="621"/>
+      <c r="H1" s="622"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
+      <c r="K1" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="612"/>
-      <c r="M1" s="612"/>
-      <c r="N1" s="630"/>
-      <c r="O1" s="612"/>
-      <c r="P1" s="618" t="s">
+      <c r="L1" s="611"/>
+      <c r="M1" s="611"/>
+      <c r="N1" s="623"/>
+      <c r="O1" s="611"/>
+      <c r="P1" s="617" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="291"/>
@@ -16345,7 +16330,7 @@
       <c r="AA1" s="291"/>
     </row>
     <row r="2" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A2" s="631"/>
+      <c r="A2" s="624"/>
       <c r="B2" s="1" t="s">
         <v>257</v>
       </c>
@@ -16388,7 +16373,7 @@
       <c r="O2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="P2" s="620"/>
+      <c r="P2" s="632"/>
       <c r="Q2" s="291"/>
       <c r="R2" s="291"/>
       <c r="S2" s="291"/>
@@ -16402,7 +16387,7 @@
       <c r="AA2" s="291"/>
     </row>
     <row r="3" spans="1:27" ht="42" customHeight="1">
-      <c r="A3" s="632" t="s">
+      <c r="A3" s="625" t="s">
         <v>264</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -16455,7 +16440,7 @@
       <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:27" ht="42" customHeight="1">
-      <c r="A4" s="633"/>
+      <c r="A4" s="626"/>
       <c r="B4" s="14" t="s">
         <v>271</v>
       </c>
@@ -16506,7 +16491,7 @@
       <c r="S4" s="43"/>
     </row>
     <row r="5" spans="1:27" ht="42" customHeight="1">
-      <c r="A5" s="633"/>
+      <c r="A5" s="626"/>
       <c r="B5" s="14" t="s">
         <v>274</v>
       </c>
@@ -16557,7 +16542,7 @@
       <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:27" ht="42" customHeight="1">
-      <c r="A6" s="634"/>
+      <c r="A6" s="627"/>
       <c r="B6" s="161" t="s">
         <v>277</v>
       </c>
@@ -16616,7 +16601,7 @@
       <c r="AA6" s="292"/>
     </row>
     <row r="7" spans="1:27" ht="42" customHeight="1">
-      <c r="A7" s="633"/>
+      <c r="A7" s="626"/>
       <c r="B7" s="14" t="s">
         <v>280</v>
       </c>
@@ -16667,7 +16652,7 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="1:27" ht="39" customHeight="1">
-      <c r="A8" s="634"/>
+      <c r="A8" s="627"/>
       <c r="B8" s="166" t="s">
         <v>285</v>
       </c>
@@ -16726,7 +16711,7 @@
       <c r="AA8" s="292"/>
     </row>
     <row r="9" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A9" s="633"/>
+      <c r="A9" s="626"/>
       <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
@@ -16777,7 +16762,7 @@
       <c r="S9" s="43"/>
     </row>
     <row r="10" spans="1:27" ht="51.95" customHeight="1">
-      <c r="A10" s="633"/>
+      <c r="A10" s="626"/>
       <c r="B10" s="19" t="s">
         <v>60</v>
       </c>
@@ -16828,7 +16813,7 @@
       <c r="S10" s="43"/>
     </row>
     <row r="11" spans="1:27" ht="42" customHeight="1">
-      <c r="A11" s="633"/>
+      <c r="A11" s="626"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
@@ -16877,7 +16862,7 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="1:27" ht="63.95" customHeight="1">
-      <c r="A12" s="635" t="s">
+      <c r="A12" s="628" t="s">
         <v>298</v>
       </c>
       <c r="B12" s="168" t="s">
@@ -16930,7 +16915,7 @@
       <c r="S12" s="43"/>
     </row>
     <row r="13" spans="1:27" ht="80.099999999999994" customHeight="1">
-      <c r="A13" s="636"/>
+      <c r="A13" s="629"/>
       <c r="B13" s="161" t="s">
         <v>306</v>
       </c>
@@ -16989,7 +16974,7 @@
       <c r="AA13" s="292"/>
     </row>
     <row r="14" spans="1:27" ht="144" customHeight="1">
-      <c r="A14" s="637"/>
+      <c r="A14" s="630"/>
       <c r="B14" s="14" t="s">
         <v>221</v>
       </c>
@@ -17040,7 +17025,7 @@
       <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:27" ht="128.1" customHeight="1">
-      <c r="A15" s="638"/>
+      <c r="A15" s="631"/>
       <c r="B15" s="24" t="s">
         <v>315</v>
       </c>
@@ -17091,7 +17076,7 @@
       <c r="S15" s="43"/>
     </row>
     <row r="16" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A16" s="621" t="s">
+      <c r="A16" s="633" t="s">
         <v>319</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -17142,7 +17127,7 @@
       <c r="S16" s="43"/>
     </row>
     <row r="17" spans="1:27" ht="96" customHeight="1">
-      <c r="A17" s="622"/>
+      <c r="A17" s="634"/>
       <c r="B17" s="14" t="s">
         <v>124</v>
       </c>
@@ -17193,7 +17178,7 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="1:27" ht="144" customHeight="1">
-      <c r="A18" s="621"/>
+      <c r="A18" s="633"/>
       <c r="B18" s="14" t="s">
         <v>133</v>
       </c>
@@ -17244,7 +17229,7 @@
       <c r="S18" s="43"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="623" t="s">
+      <c r="A19" s="619" t="s">
         <v>330</v>
       </c>
       <c r="B19" s="168" t="s">
@@ -17279,7 +17264,7 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:27" ht="56.1" customHeight="1">
-      <c r="A20" s="624"/>
+      <c r="A20" s="635"/>
       <c r="B20" s="161" t="s">
         <v>333</v>
       </c>
@@ -17334,7 +17319,7 @@
       <c r="AA20" s="292"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="625"/>
+      <c r="A21" s="620"/>
       <c r="B21" s="14" t="s">
         <v>336</v>
       </c>
@@ -17373,7 +17358,7 @@
       <c r="S21" s="43"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="621"/>
+      <c r="A22" s="633"/>
       <c r="B22" s="19" t="s">
         <v>46</v>
       </c>
@@ -17408,7 +17393,7 @@
       <c r="S22" s="43"/>
     </row>
     <row r="23" spans="1:27" ht="69.95" customHeight="1">
-      <c r="A23" s="626" t="s">
+      <c r="A23" s="636" t="s">
         <v>337</v>
       </c>
       <c r="B23" s="177" t="s">
@@ -17467,7 +17452,7 @@
       <c r="AA23" s="292"/>
     </row>
     <row r="24" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A24" s="624"/>
+      <c r="A24" s="635"/>
       <c r="B24" s="161" t="s">
         <v>343</v>
       </c>
@@ -17524,7 +17509,7 @@
       <c r="AA24" s="292"/>
     </row>
     <row r="25" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A25" s="624"/>
+      <c r="A25" s="635"/>
       <c r="B25" s="161" t="s">
         <v>346</v>
       </c>
@@ -17581,7 +17566,7 @@
       <c r="AA25" s="292"/>
     </row>
     <row r="26" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A26" s="625"/>
+      <c r="A26" s="620"/>
       <c r="B26" s="14" t="s">
         <v>107</v>
       </c>
@@ -17630,7 +17615,7 @@
       <c r="S26" s="43"/>
     </row>
     <row r="27" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A27" s="624"/>
+      <c r="A27" s="635"/>
       <c r="B27" s="161" t="s">
         <v>351</v>
       </c>
@@ -17687,7 +17672,7 @@
       <c r="AA27" s="292"/>
     </row>
     <row r="28" spans="1:27" ht="32.1" customHeight="1">
-      <c r="A28" s="627"/>
+      <c r="A28" s="637"/>
       <c r="B28" s="183" t="s">
         <v>354</v>
       </c>
@@ -17744,7 +17729,7 @@
       <c r="AA28" s="292"/>
     </row>
     <row r="29" spans="1:27" ht="27.95" customHeight="1">
-      <c r="A29" s="626" t="s">
+      <c r="A29" s="636" t="s">
         <v>357</v>
       </c>
       <c r="B29" s="177" t="s">
@@ -17805,7 +17790,7 @@
       <c r="AA29" s="292"/>
     </row>
     <row r="30" spans="1:27" ht="48" customHeight="1">
-      <c r="A30" s="627"/>
+      <c r="A30" s="637"/>
       <c r="B30" s="183" t="s">
         <v>362</v>
       </c>
@@ -17913,7 +17898,7 @@
       <c r="S31" s="43"/>
     </row>
     <row r="32" spans="1:27" ht="69.95" customHeight="1">
-      <c r="A32" s="623" t="s">
+      <c r="A32" s="619" t="s">
         <v>369</v>
       </c>
       <c r="B32" s="168" t="s">
@@ -17966,7 +17951,7 @@
       <c r="S32" s="43"/>
     </row>
     <row r="33" spans="1:19" ht="56.1" customHeight="1">
-      <c r="A33" s="625"/>
+      <c r="A33" s="620"/>
       <c r="B33" s="14" t="s">
         <v>374</v>
       </c>
@@ -18013,7 +17998,7 @@
       <c r="S33" s="43"/>
     </row>
     <row r="34" spans="1:19" ht="42" customHeight="1">
-      <c r="A34" s="625"/>
+      <c r="A34" s="620"/>
       <c r="B34" s="14" t="s">
         <v>243</v>
       </c>
@@ -18062,7 +18047,7 @@
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="42" customHeight="1">
-      <c r="A35" s="625"/>
+      <c r="A35" s="620"/>
       <c r="B35" s="14" t="s">
         <v>245</v>
       </c>
@@ -18111,7 +18096,7 @@
       <c r="S35" s="43"/>
     </row>
     <row r="36" spans="1:19" ht="111.95" customHeight="1">
-      <c r="A36" s="625"/>
+      <c r="A36" s="620"/>
       <c r="B36" s="14" t="s">
         <v>247</v>
       </c>
@@ -21369,17 +21354,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -22113,10 +22098,10 @@
       <c r="F36" s="133"/>
       <c r="G36" s="134"/>
       <c r="H36" s="135"/>
-      <c r="I36" s="639" t="s">
+      <c r="I36" s="638" t="s">
         <v>383</v>
       </c>
-      <c r="J36" s="639"/>
+      <c r="J36" s="638"/>
       <c r="K36" s="133"/>
       <c r="L36" s="134"/>
       <c r="M36" s="135"/>
@@ -22133,8 +22118,8 @@
       <c r="F37" s="139"/>
       <c r="G37" s="143"/>
       <c r="H37" s="144"/>
-      <c r="I37" s="640"/>
-      <c r="J37" s="640"/>
+      <c r="I37" s="639"/>
+      <c r="J37" s="639"/>
       <c r="K37" s="139"/>
       <c r="L37" s="143"/>
       <c r="M37" s="144"/>
@@ -22388,37 +22373,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="612" t="s">
+      <c r="A1" s="611" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="612"/>
-      <c r="C1" s="612"/>
-      <c r="D1" s="612"/>
-      <c r="E1" s="612"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="612"/>
-      <c r="H1" s="612" t="s">
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="613" t="s">
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
+      <c r="K1" s="612" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="641"/>
-      <c r="M1" s="612"/>
-      <c r="N1" s="615"/>
-      <c r="O1" s="615"/>
-      <c r="P1" s="612"/>
-      <c r="Q1" s="641"/>
-      <c r="R1" s="612"/>
-      <c r="S1" s="612"/>
-      <c r="T1" s="616"/>
-      <c r="U1" s="612"/>
-      <c r="V1" s="641"/>
-      <c r="W1" s="617"/>
-      <c r="X1" s="612"/>
-      <c r="Y1" s="618"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="611"/>
+      <c r="N1" s="614"/>
+      <c r="O1" s="614"/>
+      <c r="P1" s="611"/>
+      <c r="Q1" s="640"/>
+      <c r="R1" s="611"/>
+      <c r="S1" s="611"/>
+      <c r="T1" s="615"/>
+      <c r="U1" s="611"/>
+      <c r="V1" s="640"/>
+      <c r="W1" s="616"/>
+      <c r="X1" s="611"/>
+      <c r="Y1" s="617"/>
     </row>
     <row r="2" spans="1:25" ht="32.1" customHeight="1">
       <c r="A2" s="1" t="s">

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>弱化效果</t>
   </si>
@@ -159,28 +159,10 @@
     <t>减少公司状态“仓鼠之家” *1</t>
   </si>
   <si>
-    <t>原型图画室</t>
-  </si>
-  <si>
     <t>商战部门</t>
   </si>
   <si>
-    <t>生产商战牌-原型图</t>
-  </si>
-  <si>
-    <t>事业部效率-4</t>
-  </si>
-  <si>
     <t>事业部效率-2</t>
-  </si>
-  <si>
-    <t>算法小组</t>
-  </si>
-  <si>
-    <t>生产商战牌-大数据</t>
-  </si>
-  <si>
-    <t>事业部工作状态-5</t>
   </si>
   <si>
     <t>岗位类型</t>
@@ -321,6 +303,14 @@
   </si>
   <si>
     <t>仓鼠之家：物品栏+1 我放哪儿了？：每回合经验获取-3</t>
+  </si>
+  <si>
+    <t>商战建筑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商战牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -753,7 +743,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -784,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -796,34 +786,34 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>0</v>
@@ -841,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
@@ -856,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -901,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>19</v>
@@ -916,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -934,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O3" s="9">
         <v>2</v>
@@ -943,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>21</v>
@@ -961,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>26</v>
@@ -976,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -991,25 +981,25 @@
         <v>1</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O4" s="9">
         <v>2</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T4" s="5"/>
     </row>
@@ -1021,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>28</v>
@@ -1036,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -1054,7 +1044,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O5" s="9">
         <v>2</v>
@@ -1063,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>30</v>
@@ -1081,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>34</v>
@@ -1096,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
@@ -1114,7 +1104,7 @@
         <v>37</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O6" s="9">
         <v>2</v>
@@ -1123,10 +1113,10 @@
         <v>38</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>36</v>
@@ -1141,7 +1131,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>26</v>
@@ -1156,13 +1146,13 @@
         <v>5</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>12</v>
@@ -1171,10 +1161,10 @@
         <v>2</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O7" s="9">
         <v>0</v>
@@ -1182,10 +1172,10 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="T7" s="5"/>
     </row>
@@ -1197,10 +1187,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -1212,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>12</v>
@@ -1227,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>43</v>
@@ -1238,7 +1228,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>42</v>
@@ -1253,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>34</v>
@@ -1268,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>12</v>
@@ -1283,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O9" s="9">
         <v>0</v>
@@ -1297,19 +1287,19 @@
         <v>45</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:22" ht="36" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>28</v>
@@ -1324,23 +1314,19 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1350,62 +1336,30 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:22" ht="36" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9">
-        <v>20</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="9">
-        <v>2</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="5"/>
     </row>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -24,9 +24,6 @@
     <t>弱化效果</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>部门名称</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>事业部效率-1</t>
-  </si>
-  <si>
-    <t>放置需玩家手动进行</t>
   </si>
   <si>
     <t>在部门所在事业部内放置一个面积2*2的附属建筑“1号自动化工坊”</t>
@@ -311,6 +305,12 @@
   <si>
     <t>生产商战牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态和物品信息</t>
+  </si>
+  <si>
+    <t>“自动化工坊”放置需玩家手动进行</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -765,76 +765,76 @@
   <sheetData>
     <row r="1" spans="1:22" ht="42.95" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="51.95" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="9">
         <v>4</v>
@@ -846,55 +846,55 @@
         <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="L2" s="9">
         <v>1</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" s="9">
         <v>2</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="39" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="9">
         <v>4</v>
@@ -906,55 +906,55 @@
         <v>5</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="9">
         <v>1</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O3" s="9">
         <v>2</v>
       </c>
       <c r="P3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="65.099999999999994" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="9">
         <v>4</v>
@@ -966,55 +966,55 @@
         <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="9">
         <v>1</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O4" s="9">
         <v>2</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="36" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
@@ -1026,55 +1026,55 @@
         <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O5" s="9">
         <v>2</v>
       </c>
       <c r="P5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:22" ht="52.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9">
         <v>4</v>
@@ -1086,55 +1086,55 @@
         <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O6" s="9">
         <v>2</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:22" ht="60.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9">
         <v>3</v>
@@ -1146,25 +1146,25 @@
         <v>5</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="9">
         <v>2</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O7" s="9">
         <v>0</v>
@@ -1172,25 +1172,25 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="78" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -1202,25 +1202,25 @@
         <v>5</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O8" s="9">
         <v>0</v>
@@ -1228,25 +1228,25 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:22" ht="65.099999999999994" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
@@ -1258,25 +1258,25 @@
         <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="9">
         <v>2</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O9" s="9">
         <v>0</v>
@@ -1284,25 +1284,25 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:22" ht="36" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="9">
         <v>4</v>
@@ -1314,13 +1314,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" s="9">
         <v>0</v>
@@ -1336,7 +1336,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="5"/>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -743,7 +743,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -840,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="9">
+        <v>100</v>
+      </c>
+      <c r="G2" s="9">
         <v>20</v>
-      </c>
-      <c r="G2" s="9">
-        <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>57</v>
@@ -900,10 +900,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="9">
+        <v>100</v>
+      </c>
+      <c r="G3" s="9">
         <v>20</v>
-      </c>
-      <c r="G3" s="9">
-        <v>5</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>58</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="9">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9">
         <v>20</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>59</v>
@@ -1020,10 +1020,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="9">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9">
         <v>20</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>65</v>
@@ -1080,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="9">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9">
         <v>20</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>66</v>
@@ -1140,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="9">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9">
         <v>20</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>68</v>
@@ -1196,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="9">
+        <v>100</v>
+      </c>
+      <c r="G8" s="9">
         <v>20</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>72</v>
@@ -1252,10 +1252,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9">
         <v>20</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>76</v>
@@ -1308,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="9">
+        <v>100</v>
+      </c>
+      <c r="G10" s="9">
         <v>20</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>93</v>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>弱化效果</t>
   </si>
@@ -311,6 +311,34 @@
   </si>
   <si>
     <t>“自动化工坊”放置需玩家手动进行</t>
+  </si>
+  <si>
+    <t>无弱化效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力等级1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力等级2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力等级3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力舱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +771,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1342,24 +1370,56 @@
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:22" ht="36" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>100</v>
+      </c>
+      <c r="G11" s="9">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="5"/>
     </row>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1186,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>70</v>
@@ -1195,7 +1195,7 @@
         <v>86</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1345,21 +1345,21 @@
         <v>93</v>
       </c>
       <c r="I10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>

--- a/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
+++ b/Assets/StreamingAssets/Excel/BuildingFunction.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1289,7 +1289,7 @@
         <v>76</v>
       </c>
       <c r="I9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>88</v>
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>89</v>
